--- a/reports/Lab8Statistics.xlsx
+++ b/reports/Lab8Statistics.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graevsky/Desktop/opd/ITMO-opd-lr/reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graevsky/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B5D327-0250-CE4B-AFAC-014A33B6CEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71EE01B-63F9-FD48-9028-C686C5209140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88C5D3E7-1F37-A047-B45A-B68EFBC1671D}"/>
   </bookViews>
   <sheets>
     <sheet name="итог" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="85">
   <si>
     <t>ПВК</t>
   </si>
@@ -255,11 +255,47 @@
   <si>
     <t>Для более точной оценки и прогнозирования совместимости пользователей с ПВК и профессией требуется соотнести данные в таблицах с предполагаемыми результатами и реальные результаты по тестам и совместимости с профессией. После этого можно провести корректировку весов для оптимизации тестирования. Таблицы, как эта, позволяют оценивать точность системы оценки респондентов и вносить необходимые изменения в наборы критериев</t>
   </si>
+  <si>
+    <t>Корреляционный анализ</t>
+  </si>
+  <si>
+    <t>Результаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Звуковая память</t>
+  </si>
+  <si>
+    <t>Зрительная память</t>
+  </si>
+  <si>
+    <t>Аналоговое слежение</t>
+  </si>
+  <si>
+    <t>Внимание. Переключаемость</t>
+  </si>
+  <si>
+    <t>Слежение с преследованием</t>
+  </si>
+  <si>
+    <t>Дедукция. Абстракция</t>
+  </si>
+  <si>
+    <t>Сложное движение</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -325,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,8 +386,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -907,11 +949,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1025,6 +1082,95 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1070,6 +1216,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,21 +1243,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1112,54 +1261,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1184,6 +1291,25 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1498,14 +1624,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6D7CBA-022D-3040-806B-E1BFD06904A8}">
-  <dimension ref="B1:BC33"/>
+  <dimension ref="B1:CM51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB26" sqref="BB26"/>
+      <selection pane="bottomLeft" activeCell="BC28" sqref="BC28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
@@ -1552,169 +1678,291 @@
     <col min="45" max="45" width="6" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="6.6640625" customWidth="1"/>
     <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="6" bestFit="1" customWidth="1"/>
     <col min="52" max="55" width="33.33203125" customWidth="1"/>
+    <col min="58" max="58" width="34.83203125" customWidth="1"/>
+    <col min="59" max="59" width="16" customWidth="1"/>
+    <col min="61" max="61" width="14.1640625" customWidth="1"/>
+    <col min="62" max="63" width="16" customWidth="1"/>
+    <col min="64" max="64" width="15.33203125" customWidth="1"/>
+    <col min="65" max="65" width="17.33203125" customWidth="1"/>
+    <col min="66" max="66" width="17" customWidth="1"/>
+    <col min="67" max="67" width="19.1640625" customWidth="1"/>
+    <col min="68" max="68" width="18.83203125" customWidth="1"/>
+    <col min="69" max="69" width="19.6640625" customWidth="1"/>
+    <col min="70" max="70" width="18.1640625" customWidth="1"/>
+    <col min="71" max="71" width="14.1640625" customWidth="1"/>
+    <col min="72" max="72" width="17.83203125" customWidth="1"/>
+    <col min="73" max="73" width="16.6640625" customWidth="1"/>
+    <col min="74" max="74" width="27.33203125" customWidth="1"/>
+    <col min="76" max="76" width="34.33203125" customWidth="1"/>
+    <col min="77" max="77" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="81" width="15.33203125" customWidth="1"/>
+    <col min="82" max="82" width="15" customWidth="1"/>
+    <col min="83" max="83" width="16.5" customWidth="1"/>
+    <col min="84" max="84" width="16.83203125" customWidth="1"/>
+    <col min="85" max="85" width="17.33203125" customWidth="1"/>
+    <col min="86" max="86" width="15.83203125" customWidth="1"/>
+    <col min="87" max="87" width="16" customWidth="1"/>
+    <col min="88" max="88" width="13.33203125" customWidth="1"/>
+    <col min="89" max="89" width="13.5" customWidth="1"/>
+    <col min="90" max="90" width="18.33203125" customWidth="1"/>
+    <col min="91" max="91" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:55" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:55" s="6" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="86" t="s">
+    <row r="1" spans="2:91" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BN1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW1" s="112"/>
+      <c r="BX1" s="112"/>
+      <c r="BY1" s="112"/>
+      <c r="BZ1" s="112"/>
+      <c r="CA1" s="112"/>
+      <c r="CB1" s="112"/>
+      <c r="CC1" s="112"/>
+      <c r="CD1" s="112"/>
+      <c r="CE1" s="112"/>
+      <c r="CF1" s="112"/>
+      <c r="CG1" s="112"/>
+      <c r="CH1" s="112"/>
+      <c r="CI1" s="112"/>
+      <c r="CJ1" s="112"/>
+      <c r="CK1" s="112"/>
+      <c r="CL1" s="112"/>
+      <c r="CM1" s="112"/>
+    </row>
+    <row r="2" spans="2:91" s="6" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
-      <c r="L2" s="86" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
+      <c r="L2" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="88"/>
-      <c r="V2" s="70" t="s">
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="106"/>
+      <c r="V2" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="72"/>
-      <c r="AF2" s="70" t="s">
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="61"/>
+      <c r="AF2" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="72"/>
-      <c r="AP2" s="70" t="s">
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
+      <c r="AP2" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="72"/>
-      <c r="AU2" s="59" t="s">
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="61"/>
+      <c r="AU2" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="61"/>
-      <c r="AZ2" s="41" t="s">
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="91"/>
+      <c r="AZ2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="43"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="74"/>
+      <c r="BE2" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="55"/>
+      <c r="BR2" s="55"/>
+      <c r="BS2" s="55"/>
+      <c r="BT2" s="55"/>
+      <c r="BU2" s="55"/>
+      <c r="BW2" s="113"/>
+      <c r="BX2" s="113"/>
+      <c r="BY2" s="113"/>
+      <c r="BZ2" s="113"/>
+      <c r="CA2" s="113"/>
+      <c r="CB2" s="113"/>
+      <c r="CC2" s="113"/>
+      <c r="CD2" s="113"/>
+      <c r="CE2" s="113"/>
+      <c r="CF2" s="113"/>
+      <c r="CG2" s="113"/>
+      <c r="CH2" s="113"/>
+      <c r="CI2" s="113"/>
+      <c r="CJ2" s="113"/>
+      <c r="CK2" s="113"/>
+      <c r="CL2" s="113"/>
+      <c r="CM2" s="113"/>
     </row>
-    <row r="3" spans="2:55" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="89" t="s">
+    <row r="3" spans="2:91" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B3" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="L3" s="89" t="s">
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="95"/>
+      <c r="L3" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="89" t="s">
+      <c r="M3" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="58"/>
-      <c r="V3" s="76" t="s">
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="95"/>
+      <c r="V3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="78" t="s">
+      <c r="W3" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="73" t="s">
+      <c r="X3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="75"/>
-      <c r="AF3" s="76" t="s">
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="68"/>
+      <c r="AF3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="78" t="s">
+      <c r="AG3" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" s="73" t="s">
+      <c r="AH3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="75"/>
-      <c r="AP3" s="62" t="s">
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="68"/>
+      <c r="AP3" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="AQ3" s="73" t="s">
+      <c r="AQ3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="75"/>
-      <c r="AU3" s="62" t="s">
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="68"/>
+      <c r="AU3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AV3" s="56" t="s">
+      <c r="AV3" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="58"/>
-      <c r="AZ3" s="82">
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="95"/>
+      <c r="AZ3" s="102">
         <v>1</v>
       </c>
-      <c r="BA3" s="74">
+      <c r="BA3" s="67">
         <v>2</v>
       </c>
-      <c r="BB3" s="74">
+      <c r="BB3" s="67">
         <v>3</v>
       </c>
-      <c r="BC3" s="75">
+      <c r="BC3" s="68">
         <v>4</v>
       </c>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="57"/>
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="57"/>
+      <c r="BW3" s="120"/>
+      <c r="BX3" s="119"/>
+      <c r="BY3" s="119"/>
+      <c r="BZ3" s="119"/>
+      <c r="CA3" s="119"/>
+      <c r="CB3" s="119"/>
+      <c r="CC3" s="119"/>
+      <c r="CD3" s="119"/>
+      <c r="CE3" s="119"/>
+      <c r="CF3" s="119"/>
+      <c r="CG3" s="119"/>
+      <c r="CH3" s="119"/>
+      <c r="CI3" s="119"/>
+      <c r="CJ3" s="119"/>
+      <c r="CK3" s="119"/>
+      <c r="CL3" s="119"/>
+      <c r="CM3" s="119"/>
     </row>
-    <row r="4" spans="2:55" s="2" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+    <row r="4" spans="2:91" s="2" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1736,8 +1984,8 @@
       <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
       <c r="N4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1759,8 +2007,8 @@
       <c r="T4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="77"/>
-      <c r="W4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="65"/>
       <c r="X4" s="28" t="s">
         <v>9</v>
       </c>
@@ -1782,8 +2030,8 @@
       <c r="AD4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="65"/>
       <c r="AH4" s="28" t="s">
         <v>9</v>
       </c>
@@ -1805,7 +2053,7 @@
       <c r="AN4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AP4" s="63"/>
+      <c r="AP4" s="65"/>
       <c r="AQ4" s="28" t="s">
         <v>59</v>
       </c>
@@ -1815,7 +2063,7 @@
       <c r="AS4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AU4" s="63"/>
+      <c r="AU4" s="65"/>
       <c r="AV4" s="28" t="s">
         <v>59</v>
       </c>
@@ -1825,13 +2073,47 @@
       <c r="AX4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AZ4" s="83"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="85"/>
+      <c r="AZ4" s="103"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="88"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="57"/>
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
+      <c r="BP4" s="57"/>
+      <c r="BQ4" s="57"/>
+      <c r="BR4" s="57"/>
+      <c r="BS4" s="57"/>
+      <c r="BT4" s="57"/>
+      <c r="BU4" s="57"/>
+      <c r="BW4" s="120"/>
+      <c r="BX4" s="119"/>
+      <c r="BY4" s="119"/>
+      <c r="BZ4" s="119"/>
+      <c r="CA4" s="119"/>
+      <c r="CB4" s="119"/>
+      <c r="CC4" s="119"/>
+      <c r="CD4" s="119"/>
+      <c r="CE4" s="119"/>
+      <c r="CF4" s="119"/>
+      <c r="CG4" s="119"/>
+      <c r="CH4" s="119"/>
+      <c r="CI4" s="119"/>
+      <c r="CJ4" s="119"/>
+      <c r="CK4" s="119"/>
+      <c r="CL4" s="119"/>
+      <c r="CM4" s="119"/>
     </row>
-    <row r="5" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
+    <row r="5" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="109" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1859,7 +2141,7 @@
         <v>0.16999999999999998</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="91" t="s">
+      <c r="L5" s="109" t="s">
         <v>1</v>
       </c>
       <c r="M5" s="11" t="s">
@@ -1886,7 +2168,7 @@
       <c r="T5" s="36">
         <v>0.13</v>
       </c>
-      <c r="V5" s="79">
+      <c r="V5" s="69">
         <v>2</v>
       </c>
       <c r="W5" s="25" t="s">
@@ -1913,7 +2195,7 @@
       <c r="AD5" s="21">
         <v>450</v>
       </c>
-      <c r="AF5" s="79">
+      <c r="AF5" s="69">
         <v>2</v>
       </c>
       <c r="AG5" s="25" t="s">
@@ -1955,30 +2237,99 @@
       <c r="AU5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="AV5" s="29">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="18">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="44" t="s">
+      <c r="AV5" s="46">
+        <f>AVERAGE(D5:D14)</f>
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="AW5" s="47">
+        <f>AVERAGE(D15:D23)</f>
+        <v>0.59444444444444455</v>
+      </c>
+      <c r="AX5" s="48">
+        <f>AVERAGE(D24:D33)</f>
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="AZ5" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="BA5" s="47" t="s">
+      <c r="BA5" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="BB5" s="50" t="s">
+      <c r="BB5" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="BC5" s="53" t="s">
+      <c r="BC5" s="84" t="s">
         <v>73</v>
       </c>
+      <c r="BE5" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH5" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI5" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK5" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL5" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="BN5" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO5" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP5" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ5" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR5" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="BS5" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="BT5" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="BU5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="BW5" s="118"/>
+      <c r="BX5" s="114"/>
+      <c r="BY5" s="115"/>
+      <c r="BZ5" s="115"/>
+      <c r="CA5" s="115"/>
+      <c r="CB5" s="115"/>
+      <c r="CC5" s="115"/>
+      <c r="CD5" s="115"/>
+      <c r="CE5" s="115"/>
+      <c r="CF5" s="115"/>
+      <c r="CG5" s="115"/>
+      <c r="CH5" s="115"/>
+      <c r="CI5" s="115"/>
+      <c r="CJ5" s="115"/>
+      <c r="CK5" s="115"/>
+      <c r="CL5" s="115"/>
+      <c r="CM5" s="115"/>
     </row>
-    <row r="6" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="92"/>
+    <row r="6" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="110"/>
       <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
@@ -2004,7 +2355,7 @@
         <v>0.44</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="92"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="11" t="s">
         <v>17</v>
       </c>
@@ -2029,7 +2380,7 @@
       <c r="T6" s="36">
         <v>0.24</v>
       </c>
-      <c r="V6" s="80"/>
+      <c r="V6" s="70"/>
       <c r="W6" s="26" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2405,7 @@
       <c r="AD6" s="15">
         <v>1242</v>
       </c>
-      <c r="AF6" s="80"/>
+      <c r="AF6" s="70"/>
       <c r="AG6" s="26" t="s">
         <v>5</v>
       </c>
@@ -2094,22 +2445,109 @@
       <c r="AU6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AV6" s="23">
-        <v>1.01</v>
-      </c>
-      <c r="AW6" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="45"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="51"/>
-      <c r="BC6" s="54"/>
+      <c r="AV6" s="49">
+        <f>AVERAGE(E5:E14)</f>
+        <v>0.47799999999999992</v>
+      </c>
+      <c r="AW6" s="50">
+        <f>AVERAGE(E15:E23)</f>
+        <v>0.46444444444444444</v>
+      </c>
+      <c r="AX6" s="51">
+        <f>AVERAGE(E24:E33)</f>
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="AZ6" s="76"/>
+      <c r="BA6" s="79"/>
+      <c r="BB6" s="82"/>
+      <c r="BC6" s="85"/>
+      <c r="BE6" s="58"/>
+      <c r="BF6" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG6" s="45">
+        <f>CORREL($N5:$T5,$N$37:$T$37)</f>
+        <v>0.32002181094725757</v>
+      </c>
+      <c r="BH6" s="45">
+        <f>CORREL(N5:T5,$N$38:$T$38)</f>
+        <v>-0.55363387066570313</v>
+      </c>
+      <c r="BI6" s="45">
+        <f>CORREL($N5:$T5,$N$39:$T$39)</f>
+        <v>-0.18130472170524892</v>
+      </c>
+      <c r="BJ6" s="45">
+        <f>CORREL($N5:$T5,$N$40:$T$40)</f>
+        <v>-5.7542302234188228E-2</v>
+      </c>
+      <c r="BK6" s="45">
+        <f>CORREL($N5:$T5,$N$41:$T$41)</f>
+        <v>0.27993412818488506</v>
+      </c>
+      <c r="BL6" s="45">
+        <f>CORREL($N5:$T5,$N$42:$T$42)</f>
+        <v>-1.6144147055911457E-2</v>
+      </c>
+      <c r="BM6" s="45">
+        <f>CORREL($N5:$T5,$N$43:$T$43)</f>
+        <v>-7.5641261101617688E-2</v>
+      </c>
+      <c r="BN6" s="45">
+        <f>CORREL($N5:$T5,$N$44:$T$44)</f>
+        <v>-0.48926370985584833</v>
+      </c>
+      <c r="BO6" s="45">
+        <f>CORREL($N5:$T5,$N$45:$T$45)</f>
+        <v>7.2288592604622476E-2</v>
+      </c>
+      <c r="BP6" s="45">
+        <f>CORREL($N5:$T5,$N$46:$T$46)</f>
+        <v>-4.037206962311507E-2</v>
+      </c>
+      <c r="BQ6" s="45">
+        <f>CORREL($N5:$T5,$N$47:$T$47)</f>
+        <v>6.4016705354929607E-3</v>
+      </c>
+      <c r="BR6" s="45">
+        <f>CORREL($N5:$T5,$N$48:$T$48)</f>
+        <v>0.51808393740438752</v>
+      </c>
+      <c r="BS6" s="45">
+        <f>CORREL($N5:$T5,$N$49:$T$49)</f>
+        <v>-0.51285744759355245</v>
+      </c>
+      <c r="BT6" s="45">
+        <f>CORREL($N5:$T5,$N$50:$T$50)</f>
+        <v>-9.6100188088517127E-2</v>
+      </c>
+      <c r="BU6" s="45">
+        <f>CORREL($N5:$T5,$N$51:$T$51)</f>
+        <v>-0.40357867574471745</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW6" s="118"/>
+      <c r="BX6" s="116"/>
+      <c r="BY6" s="114"/>
+      <c r="BZ6" s="114"/>
+      <c r="CA6" s="114"/>
+      <c r="CB6" s="114"/>
+      <c r="CC6" s="114"/>
+      <c r="CD6" s="114"/>
+      <c r="CE6" s="114"/>
+      <c r="CF6" s="114"/>
+      <c r="CG6" s="114"/>
+      <c r="CH6" s="114"/>
+      <c r="CI6" s="114"/>
+      <c r="CJ6" s="114"/>
+      <c r="CK6" s="114"/>
+      <c r="CL6" s="114"/>
+      <c r="CM6" s="117"/>
     </row>
-    <row r="7" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="92"/>
+    <row r="7" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="110"/>
       <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
@@ -2135,7 +2573,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="92"/>
+      <c r="L7" s="110"/>
       <c r="M7" s="11" t="s">
         <v>18</v>
       </c>
@@ -2160,7 +2598,7 @@
       <c r="T7" s="36">
         <v>0.27</v>
       </c>
-      <c r="V7" s="80"/>
+      <c r="V7" s="70"/>
       <c r="W7" s="26" t="s">
         <v>6</v>
       </c>
@@ -2185,7 +2623,7 @@
       <c r="AD7" s="15">
         <v>900</v>
       </c>
-      <c r="AF7" s="80"/>
+      <c r="AF7" s="70"/>
       <c r="AG7" s="26" t="s">
         <v>6</v>
       </c>
@@ -2225,22 +2663,109 @@
       <c r="AU7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AV7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="AW7" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0.74</v>
-      </c>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="51"/>
-      <c r="BC7" s="54"/>
+      <c r="AV7" s="49">
+        <f>AVERAGE(F5:F14)</f>
+        <v>0.252</v>
+      </c>
+      <c r="AW7" s="50">
+        <f>AVERAGE(F15:F23)</f>
+        <v>0.25777777777777783</v>
+      </c>
+      <c r="AX7" s="51">
+        <f>AVERAGE(F24:F33)</f>
+        <v>0.18099999999999997</v>
+      </c>
+      <c r="AZ7" s="76"/>
+      <c r="BA7" s="79"/>
+      <c r="BB7" s="82"/>
+      <c r="BC7" s="85"/>
+      <c r="BE7" s="58"/>
+      <c r="BF7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG7" s="45">
+        <f t="shared" ref="BG7:BG34" si="0">CORREL($N6:$T6,$N$37:$T$37)</f>
+        <v>4.2297223812127999E-2</v>
+      </c>
+      <c r="BH7" s="45">
+        <f t="shared" ref="BH7:BH34" si="1">CORREL(N6:T6,$N$38:$T$38)</f>
+        <v>0.50993198586765909</v>
+      </c>
+      <c r="BI7" s="45">
+        <f t="shared" ref="BI7:BI34" si="2">CORREL($N6:$T6,$N$39:$T$39)</f>
+        <v>0.6267960999929767</v>
+      </c>
+      <c r="BJ7" s="45">
+        <f t="shared" ref="BJ7:BJ34" si="3">CORREL($N6:$T6,$N$40:$T$40)</f>
+        <v>0.44330343228393143</v>
+      </c>
+      <c r="BK7" s="45">
+        <f t="shared" ref="BK7:BK34" si="4">CORREL($N6:$T6,$N$41:$T$41)</f>
+        <v>0.17367545192368367</v>
+      </c>
+      <c r="BL7" s="45">
+        <f t="shared" ref="BL7:BL34" si="5">CORREL($N6:$T6,$N$42:$T$42)</f>
+        <v>-0.68259014466250079</v>
+      </c>
+      <c r="BM7" s="45">
+        <f t="shared" ref="BM7:BM34" si="6">CORREL($N6:$T6,$N$43:$T$43)</f>
+        <v>0.45462095496156024</v>
+      </c>
+      <c r="BN7" s="45">
+        <f t="shared" ref="BN7:BN34" si="7">CORREL($N6:$T6,$N$44:$T$44)</f>
+        <v>-0.37278593967679419</v>
+      </c>
+      <c r="BO7" s="45">
+        <f t="shared" ref="BO7:BO34" si="8">CORREL($N6:$T6,$N$45:$T$45)</f>
+        <v>-0.59945841292576463</v>
+      </c>
+      <c r="BP7" s="45">
+        <f t="shared" ref="BP7:BP34" si="9">CORREL($N6:$T6,$N$46:$T$46)</f>
+        <v>-0.13348808003555498</v>
+      </c>
+      <c r="BQ7" s="45">
+        <f t="shared" ref="BQ7:BQ34" si="10">CORREL($N6:$T6,$N$47:$T$47)</f>
+        <v>-0.32468006198606181</v>
+      </c>
+      <c r="BR7" s="45">
+        <f t="shared" ref="BR7:BR34" si="11">CORREL($N6:$T6,$N$48:$T$48)</f>
+        <v>-0.70951789478370486</v>
+      </c>
+      <c r="BS7" s="45">
+        <f t="shared" ref="BS7:BS34" si="12">CORREL($N6:$T6,$N$49:$T$49)</f>
+        <v>0.81465231474329225</v>
+      </c>
+      <c r="BT7" s="45">
+        <f t="shared" ref="BT7:BT34" si="13">CORREL($N6:$T6,$N$50:$T$50)</f>
+        <v>0.5853230272133495</v>
+      </c>
+      <c r="BU7" s="45">
+        <f t="shared" ref="BU7:BU34" si="14">CORREL($N6:$T6,$N$51:$T$51)</f>
+        <v>-0.24580208275868495</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW7" s="118"/>
+      <c r="BX7" s="116"/>
+      <c r="BY7" s="114"/>
+      <c r="BZ7" s="114"/>
+      <c r="CA7" s="114"/>
+      <c r="CB7" s="114"/>
+      <c r="CC7" s="114"/>
+      <c r="CD7" s="114"/>
+      <c r="CE7" s="114"/>
+      <c r="CF7" s="114"/>
+      <c r="CG7" s="114"/>
+      <c r="CH7" s="114"/>
+      <c r="CI7" s="114"/>
+      <c r="CJ7" s="114"/>
+      <c r="CK7" s="114"/>
+      <c r="CL7" s="114"/>
+      <c r="CM7" s="114"/>
     </row>
-    <row r="8" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="92"/>
+    <row r="8" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="110"/>
       <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
@@ -2263,10 +2788,10 @@
         <v>0.19</v>
       </c>
       <c r="J8" s="36">
-        <v>-3.0000000000000027E-2</v>
+        <v>0.03</v>
       </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="92"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="11" t="s">
         <v>19</v>
       </c>
@@ -2291,7 +2816,7 @@
       <c r="T8" s="36">
         <v>0.65</v>
       </c>
-      <c r="V8" s="80"/>
+      <c r="V8" s="70"/>
       <c r="W8" s="26" t="s">
         <v>42</v>
       </c>
@@ -2316,7 +2841,7 @@
       <c r="AD8" s="15">
         <v>310</v>
       </c>
-      <c r="AF8" s="80"/>
+      <c r="AF8" s="70"/>
       <c r="AG8" s="26" t="s">
         <v>42</v>
       </c>
@@ -2356,22 +2881,109 @@
       <c r="AU8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AV8" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="AW8" s="14">
-        <v>0.51</v>
-      </c>
-      <c r="AX8" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="48"/>
-      <c r="BB8" s="51"/>
-      <c r="BC8" s="54"/>
+      <c r="AV8" s="49">
+        <f>AVERAGE(G5:G14)</f>
+        <v>0.40800000000000003</v>
+      </c>
+      <c r="AW8" s="50">
+        <f>AVERAGE(G15:G23)</f>
+        <v>0.41555555555555546</v>
+      </c>
+      <c r="AX8" s="51">
+        <f>AVERAGE(G24:G33)</f>
+        <v>0.48100000000000004</v>
+      </c>
+      <c r="AZ8" s="76"/>
+      <c r="BA8" s="79"/>
+      <c r="BB8" s="82"/>
+      <c r="BC8" s="85"/>
+      <c r="BE8" s="58"/>
+      <c r="BF8" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG8" s="45">
+        <f t="shared" si="0"/>
+        <v>0.50237593083431709</v>
+      </c>
+      <c r="BH8" s="45">
+        <f t="shared" si="1"/>
+        <v>-0.50238953222716942</v>
+      </c>
+      <c r="BI8" s="45">
+        <f>CORREL($N7:$T7,$N$39:$T$39)</f>
+        <v>-0.69041925811635929</v>
+      </c>
+      <c r="BJ8" s="45">
+        <f t="shared" si="3"/>
+        <v>0.27851183080177783</v>
+      </c>
+      <c r="BK8" s="45">
+        <f t="shared" si="4"/>
+        <v>0.39794994977290893</v>
+      </c>
+      <c r="BL8" s="45">
+        <f t="shared" si="5"/>
+        <v>0.61098068433538399</v>
+      </c>
+      <c r="BM8" s="45">
+        <f t="shared" si="6"/>
+        <v>-0.22885292226805376</v>
+      </c>
+      <c r="BN8" s="45">
+        <f t="shared" si="7"/>
+        <v>-0.24963283956311524</v>
+      </c>
+      <c r="BO8" s="45">
+        <f t="shared" si="8"/>
+        <v>0.51658570502450674</v>
+      </c>
+      <c r="BP8" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.15884153404337525</v>
+      </c>
+      <c r="BQ8" s="45">
+        <f t="shared" si="10"/>
+        <v>0.47999814545511715</v>
+      </c>
+      <c r="BR8" s="45">
+        <f t="shared" si="11"/>
+        <v>0.84015764117482283</v>
+      </c>
+      <c r="BS8" s="45">
+        <f t="shared" si="12"/>
+        <v>-0.68470127670537007</v>
+      </c>
+      <c r="BT8" s="45">
+        <f t="shared" si="13"/>
+        <v>-0.23901255227729085</v>
+      </c>
+      <c r="BU8" s="45">
+        <f t="shared" si="14"/>
+        <v>-0.31602457841745218</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW8" s="118"/>
+      <c r="BX8" s="116"/>
+      <c r="BY8" s="114"/>
+      <c r="BZ8" s="114"/>
+      <c r="CA8" s="114"/>
+      <c r="CB8" s="114"/>
+      <c r="CC8" s="114"/>
+      <c r="CD8" s="114"/>
+      <c r="CE8" s="114"/>
+      <c r="CF8" s="114"/>
+      <c r="CG8" s="114"/>
+      <c r="CH8" s="114"/>
+      <c r="CI8" s="114"/>
+      <c r="CJ8" s="114"/>
+      <c r="CK8" s="114"/>
+      <c r="CL8" s="114"/>
+      <c r="CM8" s="114"/>
     </row>
-    <row r="9" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="92"/>
+    <row r="9" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="110"/>
       <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
@@ -2397,7 +3009,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="92"/>
+      <c r="L9" s="110"/>
       <c r="M9" s="11" t="s">
         <v>20</v>
       </c>
@@ -2422,7 +3034,7 @@
       <c r="T9" s="36">
         <v>0.15000000000000002</v>
       </c>
-      <c r="V9" s="81"/>
+      <c r="V9" s="71"/>
       <c r="W9" s="27" t="s">
         <v>43</v>
       </c>
@@ -2447,7 +3059,7 @@
       <c r="AD9" s="17">
         <v>1800</v>
       </c>
-      <c r="AF9" s="81"/>
+      <c r="AF9" s="71"/>
       <c r="AG9" s="27" t="s">
         <v>43</v>
       </c>
@@ -2487,22 +3099,109 @@
       <c r="AU9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AV9" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="AW9" s="14">
-        <v>0.46</v>
-      </c>
-      <c r="AX9" s="15">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="51"/>
-      <c r="BC9" s="54"/>
+      <c r="AV9" s="49">
+        <f>AVERAGE(H5:H14)</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AW9" s="50">
+        <f>AVERAGE(H15:H23)</f>
+        <v>0.21333333333333332</v>
+      </c>
+      <c r="AX9" s="51">
+        <f>AVERAGE(H24:H33)</f>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AZ9" s="76"/>
+      <c r="BA9" s="79"/>
+      <c r="BB9" s="82"/>
+      <c r="BC9" s="85"/>
+      <c r="BE9" s="58"/>
+      <c r="BF9" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG9" s="45">
+        <f t="shared" si="0"/>
+        <v>0.11452805035102848</v>
+      </c>
+      <c r="BH9" s="45">
+        <f t="shared" si="1"/>
+        <v>0.27659042590449012</v>
+      </c>
+      <c r="BI9" s="45">
+        <f t="shared" si="2"/>
+        <v>-0.49027584875252761</v>
+      </c>
+      <c r="BJ9" s="45">
+        <f t="shared" si="3"/>
+        <v>-0.33944508601662593</v>
+      </c>
+      <c r="BK9" s="45">
+        <f t="shared" si="4"/>
+        <v>6.8440162858665179E-2</v>
+      </c>
+      <c r="BL9" s="45">
+        <f t="shared" si="5"/>
+        <v>0.57778029862236224</v>
+      </c>
+      <c r="BM9" s="45">
+        <f t="shared" si="6"/>
+        <v>0.42659205167586806</v>
+      </c>
+      <c r="BN9" s="45">
+        <f t="shared" si="7"/>
+        <v>0.75802627184555305</v>
+      </c>
+      <c r="BO9" s="45">
+        <f t="shared" si="8"/>
+        <v>0.50660901551630988</v>
+      </c>
+      <c r="BP9" s="45">
+        <f t="shared" si="9"/>
+        <v>4.6066078981611233E-2</v>
+      </c>
+      <c r="BQ9" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.4699591458331252</v>
+      </c>
+      <c r="BR9" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.25564378483879013</v>
+      </c>
+      <c r="BS9" s="45">
+        <f t="shared" si="12"/>
+        <v>-8.2644884679427544E-2</v>
+      </c>
+      <c r="BT9" s="45">
+        <f t="shared" si="13"/>
+        <v>-0.45132982349245448</v>
+      </c>
+      <c r="BU9" s="45">
+        <f t="shared" si="14"/>
+        <v>-8.0406718692484266E-2</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW9" s="118"/>
+      <c r="BX9" s="116"/>
+      <c r="BY9" s="114"/>
+      <c r="BZ9" s="114"/>
+      <c r="CA9" s="114"/>
+      <c r="CB9" s="114"/>
+      <c r="CC9" s="114"/>
+      <c r="CD9" s="114"/>
+      <c r="CE9" s="114"/>
+      <c r="CF9" s="114"/>
+      <c r="CG9" s="114"/>
+      <c r="CH9" s="114"/>
+      <c r="CI9" s="114"/>
+      <c r="CJ9" s="114"/>
+      <c r="CK9" s="114"/>
+      <c r="CL9" s="114"/>
+      <c r="CM9" s="114"/>
     </row>
-    <row r="10" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="92"/>
+    <row r="10" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="110"/>
       <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
@@ -2528,7 +3227,7 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="92"/>
+      <c r="L10" s="110"/>
       <c r="M10" s="11" t="s">
         <v>21</v>
       </c>
@@ -2553,7 +3252,7 @@
       <c r="T10" s="36">
         <v>0.4499999999999999</v>
       </c>
-      <c r="V10" s="79">
+      <c r="V10" s="69">
         <v>3</v>
       </c>
       <c r="W10" s="25" t="s">
@@ -2580,7 +3279,7 @@
       <c r="AD10" s="21">
         <v>10</v>
       </c>
-      <c r="AF10" s="79">
+      <c r="AF10" s="69">
         <v>3</v>
       </c>
       <c r="AG10" s="25" t="s">
@@ -2622,22 +3321,109 @@
       <c r="AU10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AV10" s="23">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="45"/>
-      <c r="BA10" s="48"/>
-      <c r="BB10" s="51"/>
-      <c r="BC10" s="54"/>
+      <c r="AV10" s="49">
+        <f>AVERAGE(I5:I14)</f>
+        <v>0.49799999999999994</v>
+      </c>
+      <c r="AW10" s="50">
+        <f>AVERAGE(I15:I23)</f>
+        <v>0.48444444444444446</v>
+      </c>
+      <c r="AX10" s="51">
+        <f>AVERAGE(I24:I33)</f>
+        <v>0.57100000000000006</v>
+      </c>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="82"/>
+      <c r="BC10" s="85"/>
+      <c r="BE10" s="58"/>
+      <c r="BF10" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG10" s="45">
+        <f t="shared" si="0"/>
+        <v>-9.7250904235545485E-2</v>
+      </c>
+      <c r="BH10" s="45">
+        <f t="shared" si="1"/>
+        <v>-0.22590774647327233</v>
+      </c>
+      <c r="BI10" s="45">
+        <f t="shared" si="2"/>
+        <v>-0.12892489658573308</v>
+      </c>
+      <c r="BJ10" s="45">
+        <f t="shared" si="3"/>
+        <v>0.20225741098813604</v>
+      </c>
+      <c r="BK10" s="45">
+        <f t="shared" si="4"/>
+        <v>-5.6739090252757356E-2</v>
+      </c>
+      <c r="BL10" s="45">
+        <f t="shared" si="5"/>
+        <v>0.25071798300382131</v>
+      </c>
+      <c r="BM10" s="45">
+        <f t="shared" si="6"/>
+        <v>-0.5784322278178784</v>
+      </c>
+      <c r="BN10" s="45">
+        <f t="shared" si="7"/>
+        <v>-0.41603041796491608</v>
+      </c>
+      <c r="BO10" s="45">
+        <f t="shared" si="8"/>
+        <v>0.39244184256544312</v>
+      </c>
+      <c r="BP10" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.34821890004072859</v>
+      </c>
+      <c r="BQ10" s="45">
+        <f t="shared" si="10"/>
+        <v>0.80819340325338296</v>
+      </c>
+      <c r="BR10" s="45">
+        <f t="shared" si="11"/>
+        <v>0.83815768512790889</v>
+      </c>
+      <c r="BS10" s="45">
+        <f t="shared" si="12"/>
+        <v>-0.640920974427998</v>
+      </c>
+      <c r="BT10" s="45">
+        <f t="shared" si="13"/>
+        <v>0.26106639556009176</v>
+      </c>
+      <c r="BU10" s="45">
+        <f t="shared" si="14"/>
+        <v>8.5738046819572436E-2</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW10" s="118"/>
+      <c r="BX10" s="116"/>
+      <c r="BY10" s="114"/>
+      <c r="BZ10" s="114"/>
+      <c r="CA10" s="114"/>
+      <c r="CB10" s="114"/>
+      <c r="CC10" s="114"/>
+      <c r="CD10" s="114"/>
+      <c r="CE10" s="114"/>
+      <c r="CF10" s="114"/>
+      <c r="CG10" s="114"/>
+      <c r="CH10" s="114"/>
+      <c r="CI10" s="114"/>
+      <c r="CJ10" s="114"/>
+      <c r="CK10" s="114"/>
+      <c r="CL10" s="114"/>
+      <c r="CM10" s="114"/>
     </row>
-    <row r="11" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="92"/>
+    <row r="11" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="110"/>
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
@@ -2663,7 +3449,7 @@
         <v>0.36999999999999994</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="L11" s="92"/>
+      <c r="L11" s="110"/>
       <c r="M11" s="11" t="s">
         <v>22</v>
       </c>
@@ -2688,7 +3474,7 @@
       <c r="T11" s="36">
         <v>0.16999999999999993</v>
       </c>
-      <c r="V11" s="81"/>
+      <c r="V11" s="71"/>
       <c r="W11" s="27" t="s">
         <v>45</v>
       </c>
@@ -2713,7 +3499,7 @@
       <c r="AD11" s="17">
         <v>850</v>
       </c>
-      <c r="AF11" s="81"/>
+      <c r="AF11" s="71"/>
       <c r="AG11" s="27" t="s">
         <v>45</v>
       </c>
@@ -2753,22 +3539,109 @@
       <c r="AU11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AV11" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="AW11" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="AX11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="51"/>
-      <c r="BC11" s="54"/>
+      <c r="AV11" s="52">
+        <f>AVERAGE(J5:J14)</f>
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AW11" s="53">
+        <f>AVERAGE(J15:J23)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AX11" s="54">
+        <f>AVERAGE(J24:J33)</f>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AZ11" s="76"/>
+      <c r="BA11" s="79"/>
+      <c r="BB11" s="82"/>
+      <c r="BC11" s="85"/>
+      <c r="BE11" s="58"/>
+      <c r="BF11" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="BG11" s="45">
+        <f t="shared" si="0"/>
+        <v>7.503657904788856E-2</v>
+      </c>
+      <c r="BH11" s="45">
+        <f t="shared" si="1"/>
+        <v>0.51720177782139187</v>
+      </c>
+      <c r="BI11" s="45">
+        <f t="shared" si="2"/>
+        <v>0.60356596640919324</v>
+      </c>
+      <c r="BJ11" s="45">
+        <f t="shared" si="3"/>
+        <v>0.47006267633229437</v>
+      </c>
+      <c r="BK11" s="45">
+        <f t="shared" si="4"/>
+        <v>0.21088117036442275</v>
+      </c>
+      <c r="BL11" s="45">
+        <f t="shared" si="5"/>
+        <v>-0.66068965517241396</v>
+      </c>
+      <c r="BM11" s="45">
+        <f t="shared" si="6"/>
+        <v>0.4753120259341454</v>
+      </c>
+      <c r="BN11" s="45">
+        <f t="shared" si="7"/>
+        <v>-0.39502058167773874</v>
+      </c>
+      <c r="BO11" s="45">
+        <f t="shared" si="8"/>
+        <v>-0.56971253670965627</v>
+      </c>
+      <c r="BP11" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.16277195259373534</v>
+      </c>
+      <c r="BQ11" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.32100444364725739</v>
+      </c>
+      <c r="BR11" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.68924793588384548</v>
+      </c>
+      <c r="BS11" s="45">
+        <f t="shared" si="12"/>
+        <v>0.79535140963438822</v>
+      </c>
+      <c r="BT11" s="45">
+        <f t="shared" si="13"/>
+        <v>0.59926056558357366</v>
+      </c>
+      <c r="BU11" s="45">
+        <f t="shared" si="14"/>
+        <v>-0.28805212357562338</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW11" s="118"/>
+      <c r="BX11" s="116"/>
+      <c r="BY11" s="114"/>
+      <c r="BZ11" s="114"/>
+      <c r="CA11" s="114"/>
+      <c r="CB11" s="114"/>
+      <c r="CC11" s="114"/>
+      <c r="CD11" s="114"/>
+      <c r="CE11" s="114"/>
+      <c r="CF11" s="114"/>
+      <c r="CG11" s="114"/>
+      <c r="CH11" s="114"/>
+      <c r="CI11" s="114"/>
+      <c r="CJ11" s="114"/>
+      <c r="CK11" s="114"/>
+      <c r="CL11" s="114"/>
+      <c r="CM11" s="114"/>
     </row>
-    <row r="12" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="92"/>
+    <row r="12" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="110"/>
       <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
@@ -2794,7 +3667,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="92"/>
+      <c r="L12" s="110"/>
       <c r="M12" s="11" t="s">
         <v>23</v>
       </c>
@@ -2819,7 +3692,7 @@
       <c r="T12" s="36">
         <v>0.15000000000000002</v>
       </c>
-      <c r="V12" s="79">
+      <c r="V12" s="69">
         <v>4</v>
       </c>
       <c r="W12" s="25" t="s">
@@ -2846,7 +3719,7 @@
       <c r="AD12" s="21">
         <v>500</v>
       </c>
-      <c r="AF12" s="79">
+      <c r="AF12" s="69">
         <v>4</v>
       </c>
       <c r="AG12" s="25" t="s">
@@ -2885,13 +3758,100 @@
       <c r="AS12" s="15">
         <v>1</v>
       </c>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="51"/>
-      <c r="BC12" s="54"/>
+      <c r="AX12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="79"/>
+      <c r="BB12" s="82"/>
+      <c r="BC12" s="85"/>
+      <c r="BE12" s="58"/>
+      <c r="BF12" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG12" s="45">
+        <f t="shared" si="0"/>
+        <v>-2.6196930777936257E-2</v>
+      </c>
+      <c r="BH12" s="45">
+        <f t="shared" si="1"/>
+        <v>0.35616423712434531</v>
+      </c>
+      <c r="BI12" s="45">
+        <f t="shared" si="2"/>
+        <v>0.55114514021346983</v>
+      </c>
+      <c r="BJ12" s="45">
+        <f t="shared" si="3"/>
+        <v>0.64217920783272686</v>
+      </c>
+      <c r="BK12" s="45">
+        <f t="shared" si="4"/>
+        <v>0.14724656940666755</v>
+      </c>
+      <c r="BL12" s="45">
+        <f t="shared" si="5"/>
+        <v>-0.51062122107645758</v>
+      </c>
+      <c r="BM12" s="45">
+        <f t="shared" si="6"/>
+        <v>1.2063543068664247E-2</v>
+      </c>
+      <c r="BN12" s="45">
+        <f t="shared" si="7"/>
+        <v>-0.74172055847970786</v>
+      </c>
+      <c r="BO12" s="45">
+        <f t="shared" si="8"/>
+        <v>-0.30428190971040253</v>
+      </c>
+      <c r="BP12" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.43480413842198384</v>
+      </c>
+      <c r="BQ12" s="45">
+        <f t="shared" si="10"/>
+        <v>0.32048200992922826</v>
+      </c>
+      <c r="BR12" s="45">
+        <f t="shared" si="11"/>
+        <v>-5.7634921801513798E-2</v>
+      </c>
+      <c r="BS12" s="45">
+        <f t="shared" si="12"/>
+        <v>0.33093996391731645</v>
+      </c>
+      <c r="BT12" s="45">
+        <f t="shared" si="13"/>
+        <v>0.83722825429951953</v>
+      </c>
+      <c r="BU12" s="45">
+        <f t="shared" si="14"/>
+        <v>-0.20113074549766297</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>52</v>
+      </c>
+      <c r="BW12" s="118"/>
+      <c r="BX12" s="116"/>
+      <c r="BY12" s="114"/>
+      <c r="BZ12" s="114"/>
+      <c r="CA12" s="114"/>
+      <c r="CB12" s="114"/>
+      <c r="CC12" s="114"/>
+      <c r="CD12" s="114"/>
+      <c r="CE12" s="114"/>
+      <c r="CF12" s="114"/>
+      <c r="CG12" s="114"/>
+      <c r="CH12" s="114"/>
+      <c r="CI12" s="114"/>
+      <c r="CJ12" s="114"/>
+      <c r="CK12" s="114"/>
+      <c r="CL12" s="114"/>
+      <c r="CM12" s="114"/>
     </row>
-    <row r="13" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="92"/>
+    <row r="13" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="110"/>
       <c r="C13" s="11" t="s">
         <v>24</v>
       </c>
@@ -2917,7 +3877,7 @@
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="K13" s="5"/>
-      <c r="L13" s="92"/>
+      <c r="L13" s="110"/>
       <c r="M13" s="11" t="s">
         <v>24</v>
       </c>
@@ -2942,7 +3902,7 @@
       <c r="T13" s="36">
         <v>0.41</v>
       </c>
-      <c r="V13" s="81"/>
+      <c r="V13" s="71"/>
       <c r="W13" s="27" t="s">
         <v>47</v>
       </c>
@@ -2967,7 +3927,7 @@
       <c r="AD13" s="17">
         <v>1000</v>
       </c>
-      <c r="AF13" s="81"/>
+      <c r="AF13" s="71"/>
       <c r="AG13" s="27" t="s">
         <v>47</v>
       </c>
@@ -3004,19 +3964,103 @@
       <c r="AS13" s="15">
         <v>0</v>
       </c>
-      <c r="AU13" s="64" t="s">
+      <c r="AU13" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="66"/>
-      <c r="AZ13" s="45"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="51"/>
-      <c r="BC13" s="54"/>
+      <c r="AV13" s="97"/>
+      <c r="AW13" s="97"/>
+      <c r="AX13" s="98"/>
+      <c r="AZ13" s="76"/>
+      <c r="BA13" s="79"/>
+      <c r="BB13" s="82"/>
+      <c r="BC13" s="85"/>
+      <c r="BE13" s="58"/>
+      <c r="BF13" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG13" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.18118489805359869</v>
+      </c>
+      <c r="BH13" s="45">
+        <f t="shared" si="1"/>
+        <v>-0.27728818528314653</v>
+      </c>
+      <c r="BI13" s="45">
+        <f t="shared" si="2"/>
+        <v>-0.11215143421837778</v>
+      </c>
+      <c r="BJ13" s="45">
+        <f t="shared" si="3"/>
+        <v>0.10809003962037481</v>
+      </c>
+      <c r="BK13" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.16006555773412337</v>
+      </c>
+      <c r="BL13" s="45">
+        <f t="shared" si="5"/>
+        <v>0.2411410848472382</v>
+      </c>
+      <c r="BM13" s="45">
+        <f t="shared" si="6"/>
+        <v>-0.66036323817626885</v>
+      </c>
+      <c r="BN13" s="45">
+        <f t="shared" si="7"/>
+        <v>-0.33814798543153457</v>
+      </c>
+      <c r="BO13" s="45">
+        <f t="shared" si="8"/>
+        <v>0.3584859495246927</v>
+      </c>
+      <c r="BP13" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.26812618068116079</v>
+      </c>
+      <c r="BQ13" s="45">
+        <f t="shared" si="10"/>
+        <v>0.82210952427629203</v>
+      </c>
+      <c r="BR13" s="45">
+        <f t="shared" si="11"/>
+        <v>0.83588113269480258</v>
+      </c>
+      <c r="BS13" s="45">
+        <f t="shared" si="12"/>
+        <v>-0.64729030383556785</v>
+      </c>
+      <c r="BT13" s="45">
+        <f t="shared" si="13"/>
+        <v>0.18961964629228387</v>
+      </c>
+      <c r="BU13" s="45">
+        <f t="shared" si="14"/>
+        <v>0.20625515073905487</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW13" s="118"/>
+      <c r="BX13" s="116"/>
+      <c r="BY13" s="114"/>
+      <c r="BZ13" s="114"/>
+      <c r="CA13" s="114"/>
+      <c r="CB13" s="114"/>
+      <c r="CC13" s="114"/>
+      <c r="CD13" s="114"/>
+      <c r="CE13" s="114"/>
+      <c r="CF13" s="114"/>
+      <c r="CG13" s="114"/>
+      <c r="CH13" s="114"/>
+      <c r="CI13" s="114"/>
+      <c r="CJ13" s="114"/>
+      <c r="CK13" s="114"/>
+      <c r="CL13" s="114"/>
+      <c r="CM13" s="114"/>
     </row>
-    <row r="14" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="93"/>
+    <row r="14" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="111"/>
       <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
@@ -3042,7 +4086,7 @@
         <v>0.32</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="93"/>
+      <c r="L14" s="111"/>
       <c r="M14" s="11" t="s">
         <v>25</v>
       </c>
@@ -3067,7 +4111,7 @@
       <c r="T14" s="36">
         <v>0.24</v>
       </c>
-      <c r="V14" s="79">
+      <c r="V14" s="69">
         <v>5</v>
       </c>
       <c r="W14" s="25" t="s">
@@ -3094,7 +4138,7 @@
       <c r="AD14" s="21">
         <v>900</v>
       </c>
-      <c r="AF14" s="79">
+      <c r="AF14" s="69">
         <v>5</v>
       </c>
       <c r="AG14" s="25" t="s">
@@ -3133,17 +4177,101 @@
       <c r="AS14" s="15">
         <v>0</v>
       </c>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="68"/>
-      <c r="AW14" s="68"/>
-      <c r="AX14" s="69"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="48"/>
-      <c r="BB14" s="51"/>
-      <c r="BC14" s="54"/>
+      <c r="AU14" s="99"/>
+      <c r="AV14" s="100"/>
+      <c r="AW14" s="100"/>
+      <c r="AX14" s="101"/>
+      <c r="AZ14" s="76"/>
+      <c r="BA14" s="79"/>
+      <c r="BB14" s="82"/>
+      <c r="BC14" s="85"/>
+      <c r="BE14" s="58"/>
+      <c r="BF14" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG14" s="45">
+        <f t="shared" si="0"/>
+        <v>0.70471307419021978</v>
+      </c>
+      <c r="BH14" s="45">
+        <f t="shared" si="1"/>
+        <v>-6.2819371840487567E-2</v>
+      </c>
+      <c r="BI14" s="45">
+        <f t="shared" si="2"/>
+        <v>-0.83241567363504132</v>
+      </c>
+      <c r="BJ14" s="45">
+        <f t="shared" si="3"/>
+        <v>0.3612177164948015</v>
+      </c>
+      <c r="BK14" s="45">
+        <f t="shared" si="4"/>
+        <v>0.48835723608298987</v>
+      </c>
+      <c r="BL14" s="45">
+        <f t="shared" si="5"/>
+        <v>0.75456063564784503</v>
+      </c>
+      <c r="BM14" s="45">
+        <f t="shared" si="6"/>
+        <v>0.31094169250208681</v>
+      </c>
+      <c r="BN14" s="45">
+        <f t="shared" si="7"/>
+        <v>0.28790576750080898</v>
+      </c>
+      <c r="BO14" s="45">
+        <f t="shared" si="8"/>
+        <v>0.47368105671940458</v>
+      </c>
+      <c r="BP14" s="45">
+        <f t="shared" si="9"/>
+        <v>-9.1069688246591174E-2</v>
+      </c>
+      <c r="BQ14" s="45">
+        <f t="shared" si="10"/>
+        <v>-4.1568614064589442E-2</v>
+      </c>
+      <c r="BR14" s="45">
+        <f t="shared" si="11"/>
+        <v>0.17807558816658209</v>
+      </c>
+      <c r="BS14" s="45">
+        <f t="shared" si="12"/>
+        <v>-0.15178208350640043</v>
+      </c>
+      <c r="BT14" s="45">
+        <f t="shared" si="13"/>
+        <v>-0.46262449020425633</v>
+      </c>
+      <c r="BU14" s="45">
+        <f t="shared" si="14"/>
+        <v>-0.37517480688884447</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW14" s="118"/>
+      <c r="BX14" s="116"/>
+      <c r="BY14" s="114"/>
+      <c r="BZ14" s="114"/>
+      <c r="CA14" s="114"/>
+      <c r="CB14" s="114"/>
+      <c r="CC14" s="114"/>
+      <c r="CD14" s="114"/>
+      <c r="CE14" s="114"/>
+      <c r="CF14" s="114"/>
+      <c r="CG14" s="114"/>
+      <c r="CH14" s="114"/>
+      <c r="CI14" s="114"/>
+      <c r="CJ14" s="114"/>
+      <c r="CK14" s="114"/>
+      <c r="CL14" s="114"/>
+      <c r="CM14" s="114"/>
     </row>
-    <row r="15" spans="2:55" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="92" t="s">
+    <row r="15" spans="2:91" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="110" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -3171,7 +4299,7 @@
         <v>0.44</v>
       </c>
       <c r="K15" s="5"/>
-      <c r="L15" s="92" t="s">
+      <c r="L15" s="110" t="s">
         <v>26</v>
       </c>
       <c r="M15" s="12" t="s">
@@ -3198,7 +4326,7 @@
       <c r="T15" s="37">
         <v>0.24</v>
       </c>
-      <c r="V15" s="80"/>
+      <c r="V15" s="70"/>
       <c r="W15" s="26" t="s">
         <v>49</v>
       </c>
@@ -3223,7 +4351,7 @@
       <c r="AD15" s="15">
         <v>50</v>
       </c>
-      <c r="AF15" s="80"/>
+      <c r="AF15" s="70"/>
       <c r="AG15" s="26" t="s">
         <v>49</v>
       </c>
@@ -3260,21 +4388,105 @@
       <c r="AS15" s="15">
         <v>0</v>
       </c>
-      <c r="AU15" s="62" t="s">
+      <c r="AU15" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AV15" s="56" t="s">
+      <c r="AV15" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="AW15" s="57"/>
-      <c r="AX15" s="58"/>
-      <c r="AZ15" s="45"/>
-      <c r="BA15" s="48"/>
-      <c r="BB15" s="51"/>
-      <c r="BC15" s="54"/>
+      <c r="AW15" s="94"/>
+      <c r="AX15" s="95"/>
+      <c r="AZ15" s="76"/>
+      <c r="BA15" s="79"/>
+      <c r="BB15" s="82"/>
+      <c r="BC15" s="85"/>
+      <c r="BE15" s="58"/>
+      <c r="BF15" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG15" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.62200527232044633</v>
+      </c>
+      <c r="BH15" s="45">
+        <f t="shared" si="1"/>
+        <v>0.48510606806186873</v>
+      </c>
+      <c r="BI15" s="45">
+        <f t="shared" si="2"/>
+        <v>0.64472695144083603</v>
+      </c>
+      <c r="BJ15" s="45">
+        <f t="shared" si="3"/>
+        <v>1.9343681287618358E-2</v>
+      </c>
+      <c r="BK15" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.63102506171194084</v>
+      </c>
+      <c r="BL15" s="45">
+        <f t="shared" si="5"/>
+        <v>-0.43772191910949532</v>
+      </c>
+      <c r="BM15" s="45">
+        <f t="shared" si="6"/>
+        <v>-0.25247453252638069</v>
+      </c>
+      <c r="BN15" s="45">
+        <f t="shared" si="7"/>
+        <v>0.11711315411937738</v>
+      </c>
+      <c r="BO15" s="45">
+        <f t="shared" si="8"/>
+        <v>-0.36859546172021784</v>
+      </c>
+      <c r="BP15" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.10279656703625359</v>
+      </c>
+      <c r="BQ15" s="45">
+        <f t="shared" si="10"/>
+        <v>0.17396103478632546</v>
+      </c>
+      <c r="BR15" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.40519193567713119</v>
+      </c>
+      <c r="BS15" s="45">
+        <f t="shared" si="12"/>
+        <v>0.47467871814254048</v>
+      </c>
+      <c r="BT15" s="45">
+        <f t="shared" si="13"/>
+        <v>0.38960402929546528</v>
+      </c>
+      <c r="BU15" s="45">
+        <f t="shared" si="14"/>
+        <v>0.62947831749886141</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW15" s="118"/>
+      <c r="BX15" s="116"/>
+      <c r="BY15" s="114"/>
+      <c r="BZ15" s="114"/>
+      <c r="CA15" s="114"/>
+      <c r="CB15" s="114"/>
+      <c r="CC15" s="114"/>
+      <c r="CD15" s="114"/>
+      <c r="CE15" s="114"/>
+      <c r="CF15" s="114"/>
+      <c r="CG15" s="114"/>
+      <c r="CH15" s="114"/>
+      <c r="CI15" s="114"/>
+      <c r="CJ15" s="114"/>
+      <c r="CK15" s="114"/>
+      <c r="CL15" s="114"/>
+      <c r="CM15" s="114"/>
     </row>
-    <row r="16" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="92"/>
+    <row r="16" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="110"/>
       <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
@@ -3300,7 +4512,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="K16" s="5"/>
-      <c r="L16" s="92"/>
+      <c r="L16" s="110"/>
       <c r="M16" s="11" t="s">
         <v>20</v>
       </c>
@@ -3325,7 +4537,7 @@
       <c r="T16" s="36">
         <v>0.68</v>
       </c>
-      <c r="V16" s="80"/>
+      <c r="V16" s="70"/>
       <c r="W16" s="26" t="s">
         <v>50</v>
       </c>
@@ -3350,7 +4562,7 @@
       <c r="AD16" s="15">
         <v>1900</v>
       </c>
-      <c r="AF16" s="80"/>
+      <c r="AF16" s="70"/>
       <c r="AG16" s="26" t="s">
         <v>50</v>
       </c>
@@ -3387,7 +4599,7 @@
       <c r="AS16" s="15">
         <v>0</v>
       </c>
-      <c r="AU16" s="63"/>
+      <c r="AU16" s="65"/>
       <c r="AV16" s="28" t="s">
         <v>59</v>
       </c>
@@ -3397,13 +4609,97 @@
       <c r="AX16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AZ16" s="45"/>
-      <c r="BA16" s="48"/>
-      <c r="BB16" s="51"/>
-      <c r="BC16" s="54"/>
+      <c r="AZ16" s="76"/>
+      <c r="BA16" s="79"/>
+      <c r="BB16" s="82"/>
+      <c r="BC16" s="85"/>
+      <c r="BE16" s="58"/>
+      <c r="BF16" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG16" s="45">
+        <f t="shared" si="0"/>
+        <v>4.2297223812127999E-2</v>
+      </c>
+      <c r="BH16" s="45">
+        <f t="shared" si="1"/>
+        <v>0.50993198586765909</v>
+      </c>
+      <c r="BI16" s="45">
+        <f t="shared" si="2"/>
+        <v>0.6267960999929767</v>
+      </c>
+      <c r="BJ16" s="45">
+        <f t="shared" si="3"/>
+        <v>0.44330343228393143</v>
+      </c>
+      <c r="BK16" s="45">
+        <f t="shared" si="4"/>
+        <v>0.17367545192368367</v>
+      </c>
+      <c r="BL16" s="45">
+        <f t="shared" si="5"/>
+        <v>-0.68259014466250079</v>
+      </c>
+      <c r="BM16" s="45">
+        <f t="shared" si="6"/>
+        <v>0.45462095496156024</v>
+      </c>
+      <c r="BN16" s="45">
+        <f t="shared" si="7"/>
+        <v>-0.37278593967679419</v>
+      </c>
+      <c r="BO16" s="45">
+        <f t="shared" si="8"/>
+        <v>-0.59945841292576463</v>
+      </c>
+      <c r="BP16" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.13348808003555498</v>
+      </c>
+      <c r="BQ16" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.32468006198606181</v>
+      </c>
+      <c r="BR16" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.70951789478370486</v>
+      </c>
+      <c r="BS16" s="45">
+        <f t="shared" si="12"/>
+        <v>0.81465231474329225</v>
+      </c>
+      <c r="BT16" s="45">
+        <f t="shared" si="13"/>
+        <v>0.5853230272133495</v>
+      </c>
+      <c r="BU16" s="45">
+        <f t="shared" si="14"/>
+        <v>-0.24580208275868495</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW16" s="118"/>
+      <c r="BX16" s="116"/>
+      <c r="BY16" s="114"/>
+      <c r="BZ16" s="114"/>
+      <c r="CA16" s="114"/>
+      <c r="CB16" s="114"/>
+      <c r="CC16" s="114"/>
+      <c r="CD16" s="114"/>
+      <c r="CE16" s="114"/>
+      <c r="CF16" s="114"/>
+      <c r="CG16" s="114"/>
+      <c r="CH16" s="114"/>
+      <c r="CI16" s="114"/>
+      <c r="CJ16" s="114"/>
+      <c r="CK16" s="114"/>
+      <c r="CL16" s="114"/>
+      <c r="CM16" s="114"/>
     </row>
-    <row r="17" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="92"/>
+    <row r="17" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="110"/>
       <c r="C17" s="11" t="s">
         <v>19</v>
       </c>
@@ -3426,10 +4722,10 @@
         <v>0.19</v>
       </c>
       <c r="J17" s="36">
-        <v>-3.0000000000000027E-2</v>
+        <v>0.03</v>
       </c>
       <c r="K17" s="5"/>
-      <c r="L17" s="92"/>
+      <c r="L17" s="110"/>
       <c r="M17" s="11" t="s">
         <v>19</v>
       </c>
@@ -3454,7 +4750,7 @@
       <c r="T17" s="36">
         <v>1</v>
       </c>
-      <c r="V17" s="80"/>
+      <c r="V17" s="70"/>
       <c r="W17" s="26" t="s">
         <v>51</v>
       </c>
@@ -3479,7 +4775,7 @@
       <c r="AD17" s="15">
         <v>30</v>
       </c>
-      <c r="AF17" s="80"/>
+      <c r="AF17" s="70"/>
       <c r="AG17" s="26" t="s">
         <v>51</v>
       </c>
@@ -3519,22 +4815,109 @@
       <c r="AU17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="AV17" s="29">
-        <v>0.8</v>
-      </c>
-      <c r="AW17" s="18">
-        <v>0.91</v>
-      </c>
-      <c r="AX17" s="19">
-        <v>0.69</v>
-      </c>
-      <c r="AZ17" s="45"/>
-      <c r="BA17" s="48"/>
-      <c r="BB17" s="51"/>
-      <c r="BC17" s="54"/>
+      <c r="AV17" s="46">
+        <f>AVERAGE(N5:N14)</f>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="AW17" s="47">
+        <f>AVERAGE(N15:N23)</f>
+        <v>0.29777777777777781</v>
+      </c>
+      <c r="AX17" s="48">
+        <f>AVERAGE(N24:N33)</f>
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="AZ17" s="76"/>
+      <c r="BA17" s="79"/>
+      <c r="BB17" s="82"/>
+      <c r="BC17" s="85"/>
+      <c r="BE17" s="58"/>
+      <c r="BF17" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG17" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.26556465978702792</v>
+      </c>
+      <c r="BH17" s="45">
+        <f t="shared" si="1"/>
+        <v>0.46729356928669274</v>
+      </c>
+      <c r="BI17" s="45">
+        <f t="shared" si="2"/>
+        <v>-5.4386314389353943E-2</v>
+      </c>
+      <c r="BJ17" s="45">
+        <f t="shared" si="3"/>
+        <v>-0.3998899319421903</v>
+      </c>
+      <c r="BK17" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.42845760177031417</v>
+      </c>
+      <c r="BL17" s="45">
+        <f t="shared" si="5"/>
+        <v>0.21000053746034628</v>
+      </c>
+      <c r="BM17" s="45">
+        <f t="shared" si="6"/>
+        <v>0.23697036578280686</v>
+      </c>
+      <c r="BN17" s="45">
+        <f t="shared" si="7"/>
+        <v>0.87111241935022032</v>
+      </c>
+      <c r="BO17" s="45">
+        <f t="shared" si="8"/>
+        <v>0.11866960778942641</v>
+      </c>
+      <c r="BP17" s="45">
+        <f t="shared" si="9"/>
+        <v>7.8897678519622885E-2</v>
+      </c>
+      <c r="BQ17" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.46284257205797191</v>
+      </c>
+      <c r="BR17" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.57316109742935872</v>
+      </c>
+      <c r="BS17" s="45">
+        <f t="shared" si="12"/>
+        <v>0.2733112178834195</v>
+      </c>
+      <c r="BT17" s="45">
+        <f t="shared" si="13"/>
+        <v>-0.3467499311613878</v>
+      </c>
+      <c r="BU17" s="45">
+        <f t="shared" si="14"/>
+        <v>0.39726386615541265</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW17" s="118"/>
+      <c r="BX17" s="116"/>
+      <c r="BY17" s="114"/>
+      <c r="BZ17" s="114"/>
+      <c r="CA17" s="114"/>
+      <c r="CB17" s="114"/>
+      <c r="CC17" s="114"/>
+      <c r="CD17" s="114"/>
+      <c r="CE17" s="114"/>
+      <c r="CF17" s="114"/>
+      <c r="CG17" s="114"/>
+      <c r="CH17" s="114"/>
+      <c r="CI17" s="114"/>
+      <c r="CJ17" s="114"/>
+      <c r="CK17" s="114"/>
+      <c r="CL17" s="114"/>
+      <c r="CM17" s="114"/>
     </row>
-    <row r="18" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="92"/>
+    <row r="18" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="110"/>
       <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
@@ -3560,7 +4943,7 @@
         <v>0.52</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="92"/>
+      <c r="L18" s="110"/>
       <c r="M18" s="11" t="s">
         <v>27</v>
       </c>
@@ -3585,7 +4968,7 @@
       <c r="T18" s="36">
         <v>0.32</v>
       </c>
-      <c r="V18" s="80"/>
+      <c r="V18" s="70"/>
       <c r="W18" s="26" t="s">
         <v>52</v>
       </c>
@@ -3610,7 +4993,7 @@
       <c r="AD18" s="15">
         <v>1300</v>
       </c>
-      <c r="AF18" s="80"/>
+      <c r="AF18" s="70"/>
       <c r="AG18" s="26" t="s">
         <v>52</v>
       </c>
@@ -3650,22 +5033,109 @@
       <c r="AU18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AV18" s="23">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX18" s="15">
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="45"/>
-      <c r="BA18" s="48"/>
-      <c r="BB18" s="51"/>
-      <c r="BC18" s="54"/>
+      <c r="AV18" s="49">
+        <f>AVERAGE(O5:O14)</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="AW18" s="50">
+        <f>AVERAGE(O15:O23)</f>
+        <v>0.25111111111111112</v>
+      </c>
+      <c r="AX18" s="51">
+        <f>AVERAGE(O24:O33)</f>
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="AZ18" s="76"/>
+      <c r="BA18" s="79"/>
+      <c r="BB18" s="82"/>
+      <c r="BC18" s="85"/>
+      <c r="BE18" s="58"/>
+      <c r="BF18" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG18" s="45">
+        <f t="shared" si="0"/>
+        <v>0.26680033774764439</v>
+      </c>
+      <c r="BH18" s="45">
+        <f t="shared" si="1"/>
+        <v>0.67556712534301078</v>
+      </c>
+      <c r="BI18" s="45">
+        <f t="shared" si="2"/>
+        <v>-0.43817210660636846</v>
+      </c>
+      <c r="BJ18" s="45">
+        <f t="shared" si="3"/>
+        <v>-5.6712621831836452E-2</v>
+      </c>
+      <c r="BK18" s="45">
+        <f t="shared" si="4"/>
+        <v>8.0489486064906687E-3</v>
+      </c>
+      <c r="BL18" s="45">
+        <f t="shared" si="5"/>
+        <v>0.55961284168830661</v>
+      </c>
+      <c r="BM18" s="45">
+        <f t="shared" si="6"/>
+        <v>0.67069126269039481</v>
+      </c>
+      <c r="BN18" s="45">
+        <f t="shared" si="7"/>
+        <v>0.76601515201556103</v>
+      </c>
+      <c r="BO18" s="45">
+        <f t="shared" si="8"/>
+        <v>0.51334451128086223</v>
+      </c>
+      <c r="BP18" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.36311174787931577</v>
+      </c>
+      <c r="BQ18" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.63932950392674204</v>
+      </c>
+      <c r="BR18" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.48074453387291582</v>
+      </c>
+      <c r="BS18" s="45">
+        <f t="shared" si="12"/>
+        <v>0.11643155705711281</v>
+      </c>
+      <c r="BT18" s="45">
+        <f t="shared" si="13"/>
+        <v>-0.30983033370180491</v>
+      </c>
+      <c r="BU18" s="45">
+        <f t="shared" si="14"/>
+        <v>-0.16080451592060033</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW18" s="118"/>
+      <c r="BX18" s="116"/>
+      <c r="BY18" s="114"/>
+      <c r="BZ18" s="114"/>
+      <c r="CA18" s="114"/>
+      <c r="CB18" s="114"/>
+      <c r="CC18" s="114"/>
+      <c r="CD18" s="114"/>
+      <c r="CE18" s="114"/>
+      <c r="CF18" s="114"/>
+      <c r="CG18" s="114"/>
+      <c r="CH18" s="114"/>
+      <c r="CI18" s="114"/>
+      <c r="CJ18" s="114"/>
+      <c r="CK18" s="114"/>
+      <c r="CL18" s="114"/>
+      <c r="CM18" s="114"/>
     </row>
-    <row r="19" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="92"/>
+    <row r="19" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="110"/>
       <c r="C19" s="11" t="s">
         <v>28</v>
       </c>
@@ -3691,7 +5161,7 @@
         <v>0.12</v>
       </c>
       <c r="K19" s="5"/>
-      <c r="L19" s="92"/>
+      <c r="L19" s="110"/>
       <c r="M19" s="11" t="s">
         <v>28</v>
       </c>
@@ -3716,7 +5186,7 @@
       <c r="T19" s="36">
         <v>0.99</v>
       </c>
-      <c r="V19" s="81"/>
+      <c r="V19" s="71"/>
       <c r="W19" s="27" t="s">
         <v>53</v>
       </c>
@@ -3741,7 +5211,7 @@
       <c r="AD19" s="17">
         <v>2700</v>
       </c>
-      <c r="AF19" s="81"/>
+      <c r="AF19" s="71"/>
       <c r="AG19" s="27" t="s">
         <v>53</v>
       </c>
@@ -3781,22 +5251,109 @@
       <c r="AU19" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AV19" s="23">
-        <v>1.01</v>
-      </c>
-      <c r="AW19" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX19" s="15">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AZ19" s="45"/>
-      <c r="BA19" s="48"/>
-      <c r="BB19" s="51"/>
-      <c r="BC19" s="54"/>
+      <c r="AV19" s="49">
+        <f>AVERAGE(P5:P14)</f>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AW19" s="50">
+        <f>AVERAGE(P15:P23)</f>
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="AX19" s="51">
+        <f>AVERAGE(P24:P33)</f>
+        <v>0.38899999999999996</v>
+      </c>
+      <c r="AZ19" s="76"/>
+      <c r="BA19" s="79"/>
+      <c r="BB19" s="82"/>
+      <c r="BC19" s="85"/>
+      <c r="BE19" s="58"/>
+      <c r="BF19" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG19" s="45">
+        <f t="shared" si="0"/>
+        <v>0.10589651969390836</v>
+      </c>
+      <c r="BH19" s="45">
+        <f t="shared" si="1"/>
+        <v>0.52302253732330306</v>
+      </c>
+      <c r="BI19" s="45">
+        <f t="shared" si="2"/>
+        <v>0.58031556148646402</v>
+      </c>
+      <c r="BJ19" s="45">
+        <f t="shared" si="3"/>
+        <v>0.49444332193696056</v>
+      </c>
+      <c r="BK19" s="45">
+        <f t="shared" si="4"/>
+        <v>0.24569217922535164</v>
+      </c>
+      <c r="BL19" s="45">
+        <f t="shared" si="5"/>
+        <v>-0.63858110430207171</v>
+      </c>
+      <c r="BM19" s="45">
+        <f t="shared" si="6"/>
+        <v>0.49393335747298334</v>
+      </c>
+      <c r="BN19" s="45">
+        <f t="shared" si="7"/>
+        <v>-0.41526966286546063</v>
+      </c>
+      <c r="BO19" s="45">
+        <f t="shared" si="8"/>
+        <v>-0.54035942491557676</v>
+      </c>
+      <c r="BP19" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.19017761048058643</v>
+      </c>
+      <c r="BQ19" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.31686081054090054</v>
+      </c>
+      <c r="BR19" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.66862515320001248</v>
+      </c>
+      <c r="BS19" s="45">
+        <f t="shared" si="12"/>
+        <v>0.77542793043855684</v>
+      </c>
+      <c r="BT19" s="45">
+        <f t="shared" si="13"/>
+        <v>0.61122866762510664</v>
+      </c>
+      <c r="BU19" s="45">
+        <f t="shared" si="14"/>
+        <v>-0.32748264968782026</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW19" s="118"/>
+      <c r="BX19" s="116"/>
+      <c r="BY19" s="114"/>
+      <c r="BZ19" s="114"/>
+      <c r="CA19" s="114"/>
+      <c r="CB19" s="114"/>
+      <c r="CC19" s="114"/>
+      <c r="CD19" s="114"/>
+      <c r="CE19" s="114"/>
+      <c r="CF19" s="114"/>
+      <c r="CG19" s="114"/>
+      <c r="CH19" s="114"/>
+      <c r="CI19" s="114"/>
+      <c r="CJ19" s="114"/>
+      <c r="CK19" s="114"/>
+      <c r="CL19" s="114"/>
+      <c r="CM19" s="114"/>
     </row>
-    <row r="20" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="92"/>
+    <row r="20" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="110"/>
       <c r="C20" s="11" t="s">
         <v>16</v>
       </c>
@@ -3822,7 +5379,7 @@
         <v>0.16999999999999998</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="92"/>
+      <c r="L20" s="110"/>
       <c r="M20" s="11" t="s">
         <v>16</v>
       </c>
@@ -3870,22 +5427,109 @@
       <c r="AU20" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AV20" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AW20" s="14">
-        <v>0.38</v>
-      </c>
-      <c r="AX20" s="15">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AZ20" s="45"/>
-      <c r="BA20" s="48"/>
-      <c r="BB20" s="51"/>
-      <c r="BC20" s="54"/>
+      <c r="AV20" s="49">
+        <f>AVERAGE(Q5:Q14)</f>
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="AW20" s="50">
+        <f>AVERAGE(Q15:Q23)</f>
+        <v>0.2944444444444444</v>
+      </c>
+      <c r="AX20" s="51">
+        <f>AVERAGE(Q24:Q33)</f>
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="79"/>
+      <c r="BB20" s="82"/>
+      <c r="BC20" s="85"/>
+      <c r="BE20" s="58"/>
+      <c r="BF20" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG20" s="45">
+        <f t="shared" si="0"/>
+        <v>0.38178047984663854</v>
+      </c>
+      <c r="BH20" s="45">
+        <f t="shared" si="1"/>
+        <v>0.38008261495700046</v>
+      </c>
+      <c r="BI20" s="45">
+        <f t="shared" si="2"/>
+        <v>-0.50497348463844194</v>
+      </c>
+      <c r="BJ20" s="45">
+        <f t="shared" si="3"/>
+        <v>-0.23122823843374743</v>
+      </c>
+      <c r="BK20" s="45">
+        <f t="shared" si="4"/>
+        <v>0.23948422475804829</v>
+      </c>
+      <c r="BL20" s="45">
+        <f t="shared" si="5"/>
+        <v>0.5214315635463509</v>
+      </c>
+      <c r="BM20" s="45">
+        <f t="shared" si="6"/>
+        <v>0.71776418362271532</v>
+      </c>
+      <c r="BN20" s="45">
+        <f t="shared" si="7"/>
+        <v>0.5368860193292071</v>
+      </c>
+      <c r="BO20" s="45">
+        <f t="shared" si="8"/>
+        <v>0.57104741473099052</v>
+      </c>
+      <c r="BP20" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.27077988725283914</v>
+      </c>
+      <c r="BQ20" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.74408184309954595</v>
+      </c>
+      <c r="BR20" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.27327494686881937</v>
+      </c>
+      <c r="BS20" s="45">
+        <f t="shared" si="12"/>
+        <v>-0.15724227669409541</v>
+      </c>
+      <c r="BT20" s="45">
+        <f t="shared" si="13"/>
+        <v>-0.34852874470205225</v>
+      </c>
+      <c r="BU20" s="45">
+        <f t="shared" si="14"/>
+        <v>-0.4511309532630059</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW20" s="118"/>
+      <c r="BX20" s="116"/>
+      <c r="BY20" s="114"/>
+      <c r="BZ20" s="114"/>
+      <c r="CA20" s="114"/>
+      <c r="CB20" s="114"/>
+      <c r="CC20" s="114"/>
+      <c r="CD20" s="114"/>
+      <c r="CE20" s="114"/>
+      <c r="CF20" s="114"/>
+      <c r="CG20" s="114"/>
+      <c r="CH20" s="114"/>
+      <c r="CI20" s="114"/>
+      <c r="CJ20" s="114"/>
+      <c r="CK20" s="114"/>
+      <c r="CL20" s="114"/>
+      <c r="CM20" s="114"/>
     </row>
-    <row r="21" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="92"/>
+    <row r="21" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="110"/>
       <c r="C21" s="11" t="s">
         <v>29</v>
       </c>
@@ -3911,7 +5555,7 @@
         <v>0.35999999999999993</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="92"/>
+      <c r="L21" s="110"/>
       <c r="M21" s="11" t="s">
         <v>29</v>
       </c>
@@ -3959,22 +5603,109 @@
       <c r="AU21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AV21" s="23">
-        <v>1</v>
-      </c>
-      <c r="AW21" s="14">
-        <v>0.76</v>
-      </c>
-      <c r="AX21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="45"/>
-      <c r="BA21" s="48"/>
-      <c r="BB21" s="51"/>
-      <c r="BC21" s="54"/>
+      <c r="AV21" s="49">
+        <f>AVERAGE(R5:R14)</f>
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="AW21" s="50">
+        <f>AVERAGE(R15:R23)</f>
+        <v>0.16555555555555554</v>
+      </c>
+      <c r="AX21" s="51">
+        <f>AVERAGE(R24:R33)</f>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="AZ21" s="76"/>
+      <c r="BA21" s="79"/>
+      <c r="BB21" s="82"/>
+      <c r="BC21" s="85"/>
+      <c r="BE21" s="58"/>
+      <c r="BF21" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG21" s="45">
+        <f t="shared" si="0"/>
+        <v>0.27803035364675799</v>
+      </c>
+      <c r="BH21" s="45">
+        <f t="shared" si="1"/>
+        <v>0.69978277249630405</v>
+      </c>
+      <c r="BI21" s="45">
+        <f t="shared" si="2"/>
+        <v>-0.46438752193286731</v>
+      </c>
+      <c r="BJ21" s="45">
+        <f t="shared" si="3"/>
+        <v>5.6516429423132092E-2</v>
+      </c>
+      <c r="BK21" s="45">
+        <f t="shared" si="4"/>
+        <v>0.17697810631102351</v>
+      </c>
+      <c r="BL21" s="45">
+        <f t="shared" si="5"/>
+        <v>0.63189647130209081</v>
+      </c>
+      <c r="BM21" s="45">
+        <f t="shared" si="6"/>
+        <v>0.63945140103537013</v>
+      </c>
+      <c r="BN21" s="45">
+        <f t="shared" si="7"/>
+        <v>0.57330081094594887</v>
+      </c>
+      <c r="BO21" s="45">
+        <f t="shared" si="8"/>
+        <v>0.68334252640811621</v>
+      </c>
+      <c r="BP21" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.4786003780109051</v>
+      </c>
+      <c r="BQ21" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.43560909352984512</v>
+      </c>
+      <c r="BR21" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.28275663082507491</v>
+      </c>
+      <c r="BS21" s="45">
+        <f t="shared" si="12"/>
+        <v>-3.3870656271603329E-2</v>
+      </c>
+      <c r="BT21" s="45">
+        <f t="shared" si="13"/>
+        <v>-0.10200473980791848</v>
+      </c>
+      <c r="BU21" s="45">
+        <f t="shared" si="14"/>
+        <v>-0.30821888402599734</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW21" s="118"/>
+      <c r="BX21" s="116"/>
+      <c r="BY21" s="114"/>
+      <c r="BZ21" s="114"/>
+      <c r="CA21" s="114"/>
+      <c r="CB21" s="114"/>
+      <c r="CC21" s="114"/>
+      <c r="CD21" s="114"/>
+      <c r="CE21" s="114"/>
+      <c r="CF21" s="114"/>
+      <c r="CG21" s="114"/>
+      <c r="CH21" s="114"/>
+      <c r="CI21" s="114"/>
+      <c r="CJ21" s="114"/>
+      <c r="CK21" s="114"/>
+      <c r="CL21" s="114"/>
+      <c r="CM21" s="114"/>
     </row>
-    <row r="22" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="92"/>
+    <row r="22" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="110"/>
       <c r="C22" s="11" t="s">
         <v>30</v>
       </c>
@@ -4000,7 +5731,7 @@
         <v>0.13</v>
       </c>
       <c r="K22" s="5"/>
-      <c r="L22" s="92"/>
+      <c r="L22" s="110"/>
       <c r="M22" s="11" t="s">
         <v>30</v>
       </c>
@@ -4048,22 +5779,109 @@
       <c r="AU22" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AV22" s="23">
-        <v>0.34</v>
-      </c>
-      <c r="AW22" s="14">
-        <v>0.92</v>
-      </c>
-      <c r="AX22" s="15">
-        <v>0.19</v>
-      </c>
-      <c r="AZ22" s="45"/>
-      <c r="BA22" s="48"/>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="54"/>
+      <c r="AV22" s="49">
+        <f>AVERAGE(S5:S14)</f>
+        <v>0.308</v>
+      </c>
+      <c r="AW22" s="50">
+        <f>AVERAGE(S15:S23)</f>
+        <v>0.37666666666666671</v>
+      </c>
+      <c r="AX22" s="51">
+        <f>AVERAGE(S24:S33)</f>
+        <v>0.4210000000000001</v>
+      </c>
+      <c r="AZ22" s="76"/>
+      <c r="BA22" s="79"/>
+      <c r="BB22" s="82"/>
+      <c r="BC22" s="85"/>
+      <c r="BE22" s="58"/>
+      <c r="BF22" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG22" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.60487964355904755</v>
+      </c>
+      <c r="BH22" s="45">
+        <f t="shared" si="1"/>
+        <v>0.1583230882330906</v>
+      </c>
+      <c r="BI22" s="45">
+        <f t="shared" si="2"/>
+        <v>0.86221330756115677</v>
+      </c>
+      <c r="BJ22" s="45">
+        <f t="shared" si="3"/>
+        <v>5.7970168804886993E-2</v>
+      </c>
+      <c r="BK22" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.5405695681974465</v>
+      </c>
+      <c r="BL22" s="45">
+        <f t="shared" si="5"/>
+        <v>-0.80235294117647049</v>
+      </c>
+      <c r="BM22" s="45">
+        <f t="shared" si="6"/>
+        <v>-0.37127313976218274</v>
+      </c>
+      <c r="BN22" s="45">
+        <f t="shared" si="7"/>
+        <v>-0.22527393696552747</v>
+      </c>
+      <c r="BO22" s="45">
+        <f t="shared" si="8"/>
+        <v>-0.76851136730279646</v>
+      </c>
+      <c r="BP22" s="45">
+        <f t="shared" si="9"/>
+        <v>0.15377968724901422</v>
+      </c>
+      <c r="BQ22" s="45">
+        <f t="shared" si="10"/>
+        <v>0.21781692294717706</v>
+      </c>
+      <c r="BR22" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.38678866126732769</v>
+      </c>
+      <c r="BS22" s="45">
+        <f t="shared" si="12"/>
+        <v>0.59905381337757824</v>
+      </c>
+      <c r="BT22" s="45">
+        <f t="shared" si="13"/>
+        <v>0.44727681510375128</v>
+      </c>
+      <c r="BU22" s="45">
+        <f t="shared" si="14"/>
+        <v>0.58648942807712356</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW22" s="118"/>
+      <c r="BX22" s="116"/>
+      <c r="BY22" s="114"/>
+      <c r="BZ22" s="114"/>
+      <c r="CA22" s="114"/>
+      <c r="CB22" s="114"/>
+      <c r="CC22" s="114"/>
+      <c r="CD22" s="114"/>
+      <c r="CE22" s="114"/>
+      <c r="CF22" s="114"/>
+      <c r="CG22" s="114"/>
+      <c r="CH22" s="114"/>
+      <c r="CI22" s="114"/>
+      <c r="CJ22" s="114"/>
+      <c r="CK22" s="114"/>
+      <c r="CL22" s="114"/>
+      <c r="CM22" s="114"/>
     </row>
-    <row r="23" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="92"/>
+    <row r="23" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="110"/>
       <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
@@ -4089,7 +5907,7 @@
         <v>0.58000000000000007</v>
       </c>
       <c r="K23" s="5"/>
-      <c r="L23" s="92"/>
+      <c r="L23" s="110"/>
       <c r="M23" s="13" t="s">
         <v>31</v>
       </c>
@@ -4115,9 +5933,13 @@
         <v>0.38000000000000006</v>
       </c>
       <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
+      <c r="W23" s="41"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
@@ -4137,22 +5959,109 @@
       <c r="AU23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AV23" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="AW23" s="16">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AX23" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="49"/>
-      <c r="BB23" s="52"/>
-      <c r="BC23" s="55"/>
+      <c r="AV23" s="52">
+        <f>AVERAGE(T5:T14)</f>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="AW23" s="53">
+        <f>AVERAGE(T15:T23)</f>
+        <v>0.60666666666666658</v>
+      </c>
+      <c r="AX23" s="54">
+        <f>AVERAGE(T24:T33)</f>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AZ23" s="77"/>
+      <c r="BA23" s="80"/>
+      <c r="BB23" s="83"/>
+      <c r="BC23" s="86"/>
+      <c r="BE23" s="58"/>
+      <c r="BF23" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG23" s="45">
+        <f t="shared" si="0"/>
+        <v>0.28099439435434032</v>
+      </c>
+      <c r="BH23" s="45">
+        <f t="shared" si="1"/>
+        <v>0.38220176597567812</v>
+      </c>
+      <c r="BI23" s="45">
+        <f t="shared" si="2"/>
+        <v>-0.60664615731593763</v>
+      </c>
+      <c r="BJ23" s="45">
+        <f t="shared" si="3"/>
+        <v>-0.27126713180775813</v>
+      </c>
+      <c r="BK23" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.1512192517111538</v>
+      </c>
+      <c r="BL23" s="45">
+        <f t="shared" si="5"/>
+        <v>0.67070591345131958</v>
+      </c>
+      <c r="BM23" s="45">
+        <f t="shared" si="6"/>
+        <v>0.49979616034155866</v>
+      </c>
+      <c r="BN23" s="45">
+        <f t="shared" si="7"/>
+        <v>0.91636789117202067</v>
+      </c>
+      <c r="BO23" s="45">
+        <f t="shared" si="8"/>
+        <v>0.52841835974483142</v>
+      </c>
+      <c r="BP23" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.22219268403071379</v>
+      </c>
+      <c r="BQ23" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.65866118453940525</v>
+      </c>
+      <c r="BR23" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.32179728684897008</v>
+      </c>
+      <c r="BS23" s="45">
+        <f t="shared" si="12"/>
+        <v>-8.2275532898705289E-2</v>
+      </c>
+      <c r="BT23" s="45">
+        <f t="shared" si="13"/>
+        <v>-0.65277791171950128</v>
+      </c>
+      <c r="BU23" s="45">
+        <f t="shared" si="14"/>
+        <v>-5.9227874363924583E-3</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW23" s="118"/>
+      <c r="BX23" s="116"/>
+      <c r="BY23" s="114"/>
+      <c r="BZ23" s="114"/>
+      <c r="CA23" s="114"/>
+      <c r="CB23" s="114"/>
+      <c r="CC23" s="114"/>
+      <c r="CD23" s="114"/>
+      <c r="CE23" s="114"/>
+      <c r="CF23" s="114"/>
+      <c r="CG23" s="114"/>
+      <c r="CH23" s="114"/>
+      <c r="CI23" s="114"/>
+      <c r="CJ23" s="114"/>
+      <c r="CK23" s="114"/>
+      <c r="CL23" s="114"/>
+      <c r="CM23" s="114"/>
     </row>
-    <row r="24" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="91" t="s">
+    <row r="24" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="109" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -4180,7 +6089,7 @@
         <v>0.45</v>
       </c>
       <c r="K24" s="5"/>
-      <c r="L24" s="91" t="s">
+      <c r="L24" s="109" t="s">
         <v>32</v>
       </c>
       <c r="M24" s="11" t="s">
@@ -4208,7 +6117,6 @@
         <v>0.25</v>
       </c>
       <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="AF24" s="5"/>
@@ -4227,9 +6135,93 @@
       <c r="AS24" s="15">
         <v>1</v>
       </c>
+      <c r="BE24" s="58"/>
+      <c r="BF24" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG24" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.54835329442151792</v>
+      </c>
+      <c r="BH24" s="45">
+        <f t="shared" si="1"/>
+        <v>0.15143340552431342</v>
+      </c>
+      <c r="BI24" s="45">
+        <f t="shared" si="2"/>
+        <v>0.74756979468508034</v>
+      </c>
+      <c r="BJ24" s="45">
+        <f t="shared" si="3"/>
+        <v>-0.22510533856687046</v>
+      </c>
+      <c r="BK24" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.55460360980963019</v>
+      </c>
+      <c r="BL24" s="45">
+        <f t="shared" si="5"/>
+        <v>-0.75481441308114694</v>
+      </c>
+      <c r="BM24" s="45">
+        <f t="shared" si="6"/>
+        <v>-0.11301311874750632</v>
+      </c>
+      <c r="BN24" s="45">
+        <f t="shared" si="7"/>
+        <v>0.18462061196354723</v>
+      </c>
+      <c r="BO24" s="45">
+        <f t="shared" si="8"/>
+        <v>-0.84637589924045697</v>
+      </c>
+      <c r="BP24" s="45">
+        <f t="shared" si="9"/>
+        <v>0.4382684815229842</v>
+      </c>
+      <c r="BQ24" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.24136593287265762</v>
+      </c>
+      <c r="BR24" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.7410520234407586</v>
+      </c>
+      <c r="BS24" s="45">
+        <f t="shared" si="12"/>
+        <v>0.78152052203842148</v>
+      </c>
+      <c r="BT24" s="45">
+        <f t="shared" si="13"/>
+        <v>7.6201803997644632E-2</v>
+      </c>
+      <c r="BU24" s="45">
+        <f t="shared" si="14"/>
+        <v>0.60328136750133887</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW24" s="118"/>
+      <c r="BX24" s="116"/>
+      <c r="BY24" s="114"/>
+      <c r="BZ24" s="114"/>
+      <c r="CA24" s="114"/>
+      <c r="CB24" s="114"/>
+      <c r="CC24" s="114"/>
+      <c r="CD24" s="114"/>
+      <c r="CE24" s="114"/>
+      <c r="CF24" s="114"/>
+      <c r="CG24" s="114"/>
+      <c r="CH24" s="114"/>
+      <c r="CI24" s="114"/>
+      <c r="CJ24" s="114"/>
+      <c r="CK24" s="114"/>
+      <c r="CL24" s="114"/>
+      <c r="CM24" s="114"/>
     </row>
-    <row r="25" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="92"/>
+    <row r="25" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="110"/>
       <c r="C25" s="11" t="s">
         <v>34</v>
       </c>
@@ -4255,7 +6247,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="K25" s="5"/>
-      <c r="L25" s="92"/>
+      <c r="L25" s="110"/>
       <c r="M25" s="11" t="s">
         <v>34</v>
       </c>
@@ -4300,9 +6292,93 @@
       <c r="AS25" s="17">
         <v>1</v>
       </c>
+      <c r="BE25" s="58"/>
+      <c r="BF25" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG25" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.65291512962145914</v>
+      </c>
+      <c r="BH25" s="45">
+        <f t="shared" si="1"/>
+        <v>-1.3647509165370528E-2</v>
+      </c>
+      <c r="BI25" s="45">
+        <f t="shared" si="2"/>
+        <v>0.63560902015155385</v>
+      </c>
+      <c r="BJ25" s="45">
+        <f t="shared" si="3"/>
+        <v>-0.42641087532180516</v>
+      </c>
+      <c r="BK25" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.70902974535404817</v>
+      </c>
+      <c r="BL25" s="45">
+        <f t="shared" si="5"/>
+        <v>-0.62328079401839864</v>
+      </c>
+      <c r="BM25" s="45">
+        <f t="shared" si="6"/>
+        <v>-0.30036786873917698</v>
+      </c>
+      <c r="BN25" s="45">
+        <f t="shared" si="7"/>
+        <v>0.35314630858639667</v>
+      </c>
+      <c r="BO25" s="45">
+        <f t="shared" si="8"/>
+        <v>-0.76058711268120083</v>
+      </c>
+      <c r="BP25" s="45">
+        <f t="shared" si="9"/>
+        <v>0.55890486956377616</v>
+      </c>
+      <c r="BQ25" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.15973837591313442</v>
+      </c>
+      <c r="BR25" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.59727605071651424</v>
+      </c>
+      <c r="BS25" s="45">
+        <f t="shared" si="12"/>
+        <v>0.60520727310902911</v>
+      </c>
+      <c r="BT25" s="45">
+        <f t="shared" si="13"/>
+        <v>-0.12910017673303142</v>
+      </c>
+      <c r="BU25" s="45">
+        <f t="shared" si="14"/>
+        <v>0.79241296859885424</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW25" s="118"/>
+      <c r="BX25" s="116"/>
+      <c r="BY25" s="114"/>
+      <c r="BZ25" s="114"/>
+      <c r="CA25" s="114"/>
+      <c r="CB25" s="114"/>
+      <c r="CC25" s="114"/>
+      <c r="CD25" s="114"/>
+      <c r="CE25" s="114"/>
+      <c r="CF25" s="114"/>
+      <c r="CG25" s="114"/>
+      <c r="CH25" s="114"/>
+      <c r="CI25" s="114"/>
+      <c r="CJ25" s="114"/>
+      <c r="CK25" s="114"/>
+      <c r="CL25" s="114"/>
+      <c r="CM25" s="114"/>
     </row>
-    <row r="26" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="92"/>
+    <row r="26" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="110"/>
       <c r="C26" s="11" t="s">
         <v>23</v>
       </c>
@@ -4328,7 +6404,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="92"/>
+      <c r="L26" s="110"/>
       <c r="M26" s="11" t="s">
         <v>23</v>
       </c>
@@ -4361,9 +6437,93 @@
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
+      <c r="BE26" s="58"/>
+      <c r="BF26" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG26" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.4467950183290787</v>
+      </c>
+      <c r="BH26" s="45">
+        <f t="shared" si="1"/>
+        <v>0.27264892576862643</v>
+      </c>
+      <c r="BI26" s="45">
+        <f t="shared" si="2"/>
+        <v>0.85571556613477184</v>
+      </c>
+      <c r="BJ26" s="45">
+        <f t="shared" si="3"/>
+        <v>0.26283130007896072</v>
+      </c>
+      <c r="BK26" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.33847152899730726</v>
+      </c>
+      <c r="BL26" s="45">
+        <f t="shared" si="5"/>
+        <v>-0.80849456053252133</v>
+      </c>
+      <c r="BM26" s="45">
+        <f t="shared" si="6"/>
+        <v>-0.21200371156968964</v>
+      </c>
+      <c r="BN26" s="45">
+        <f t="shared" si="7"/>
+        <v>-0.40230126090966378</v>
+      </c>
+      <c r="BO26" s="45">
+        <f t="shared" si="8"/>
+        <v>-0.72045750338189984</v>
+      </c>
+      <c r="BP26" s="45">
+        <f t="shared" si="9"/>
+        <v>-1.4346585380897761E-2</v>
+      </c>
+      <c r="BQ26" s="45">
+        <f t="shared" si="10"/>
+        <v>0.20015175148665601</v>
+      </c>
+      <c r="BR26" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.39074555455238114</v>
+      </c>
+      <c r="BS26" s="45">
+        <f t="shared" si="12"/>
+        <v>0.63005709527197518</v>
+      </c>
+      <c r="BT26" s="45">
+        <f t="shared" si="13"/>
+        <v>0.61741511685782002</v>
+      </c>
+      <c r="BU26" s="45">
+        <f t="shared" si="14"/>
+        <v>0.34933818685380652</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW26" s="118"/>
+      <c r="BX26" s="116"/>
+      <c r="BY26" s="114"/>
+      <c r="BZ26" s="114"/>
+      <c r="CA26" s="114"/>
+      <c r="CB26" s="114"/>
+      <c r="CC26" s="114"/>
+      <c r="CD26" s="114"/>
+      <c r="CE26" s="114"/>
+      <c r="CF26" s="114"/>
+      <c r="CG26" s="114"/>
+      <c r="CH26" s="114"/>
+      <c r="CI26" s="114"/>
+      <c r="CJ26" s="114"/>
+      <c r="CK26" s="114"/>
+      <c r="CL26" s="114"/>
+      <c r="CM26" s="114"/>
     </row>
-    <row r="27" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="92"/>
+    <row r="27" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="110"/>
       <c r="C27" s="11" t="s">
         <v>17</v>
       </c>
@@ -4389,7 +6549,7 @@
         <v>0.44</v>
       </c>
       <c r="K27" s="5"/>
-      <c r="L27" s="92"/>
+      <c r="L27" s="110"/>
       <c r="M27" s="11" t="s">
         <v>17</v>
       </c>
@@ -4422,9 +6582,93 @@
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
+      <c r="BE27" s="58"/>
+      <c r="BF27" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG27" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.37175653645626122</v>
+      </c>
+      <c r="BH27" s="45">
+        <f t="shared" si="1"/>
+        <v>0.23486352443062705</v>
+      </c>
+      <c r="BI27" s="45">
+        <f t="shared" si="2"/>
+        <v>-0.16440333887318428</v>
+      </c>
+      <c r="BJ27" s="45">
+        <f t="shared" si="3"/>
+        <v>-0.51520155627320707</v>
+      </c>
+      <c r="BK27" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.5591375880981494</v>
+      </c>
+      <c r="BL27" s="45">
+        <f t="shared" si="5"/>
+        <v>0.35083027806032002</v>
+      </c>
+      <c r="BM27" s="45">
+        <f t="shared" si="6"/>
+        <v>-7.6383741096353597E-2</v>
+      </c>
+      <c r="BN27" s="45">
+        <f t="shared" si="7"/>
+        <v>0.87363031339501962</v>
+      </c>
+      <c r="BO27" s="45">
+        <f t="shared" si="8"/>
+        <v>0.25245309812352101</v>
+      </c>
+      <c r="BP27" s="45">
+        <f t="shared" si="9"/>
+        <v>0.11964560798324402</v>
+      </c>
+      <c r="BQ27" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.18786432034173875</v>
+      </c>
+      <c r="BR27" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.23634533695074392</v>
+      </c>
+      <c r="BS27" s="45">
+        <f t="shared" si="12"/>
+        <v>-2.7650156993926315E-2</v>
+      </c>
+      <c r="BT27" s="45">
+        <f t="shared" si="13"/>
+        <v>-0.45157906011412585</v>
+      </c>
+      <c r="BU27" s="45">
+        <f t="shared" si="14"/>
+        <v>0.56927102205008906</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW27" s="118"/>
+      <c r="BX27" s="116"/>
+      <c r="BY27" s="114"/>
+      <c r="BZ27" s="114"/>
+      <c r="CA27" s="114"/>
+      <c r="CB27" s="114"/>
+      <c r="CC27" s="114"/>
+      <c r="CD27" s="114"/>
+      <c r="CE27" s="114"/>
+      <c r="CF27" s="114"/>
+      <c r="CG27" s="114"/>
+      <c r="CH27" s="114"/>
+      <c r="CI27" s="114"/>
+      <c r="CJ27" s="114"/>
+      <c r="CK27" s="114"/>
+      <c r="CL27" s="114"/>
+      <c r="CM27" s="114"/>
     </row>
-    <row r="28" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="92"/>
+    <row r="28" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="110"/>
       <c r="C28" s="11" t="s">
         <v>16</v>
       </c>
@@ -4450,7 +6694,7 @@
         <v>0.16999999999999998</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="92"/>
+      <c r="L28" s="110"/>
       <c r="M28" s="11" t="s">
         <v>16</v>
       </c>
@@ -4483,9 +6727,93 @@
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
+      <c r="BE28" s="58"/>
+      <c r="BF28" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG28" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.65291512962145914</v>
+      </c>
+      <c r="BH28" s="45">
+        <f t="shared" si="1"/>
+        <v>-1.3647509165370601E-2</v>
+      </c>
+      <c r="BI28" s="45">
+        <f t="shared" si="2"/>
+        <v>0.63560902015155407</v>
+      </c>
+      <c r="BJ28" s="45">
+        <f t="shared" si="3"/>
+        <v>-0.42641087532180522</v>
+      </c>
+      <c r="BK28" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.70902974535404817</v>
+      </c>
+      <c r="BL28" s="45">
+        <f t="shared" si="5"/>
+        <v>-0.62328079401839853</v>
+      </c>
+      <c r="BM28" s="45">
+        <f t="shared" si="6"/>
+        <v>-0.30036786873917687</v>
+      </c>
+      <c r="BN28" s="45">
+        <f t="shared" si="7"/>
+        <v>0.35314630858639667</v>
+      </c>
+      <c r="BO28" s="45">
+        <f t="shared" si="8"/>
+        <v>-0.76058711268120094</v>
+      </c>
+      <c r="BP28" s="45">
+        <f t="shared" si="9"/>
+        <v>0.55890486956377616</v>
+      </c>
+      <c r="BQ28" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.15973837591313436</v>
+      </c>
+      <c r="BR28" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.59727605071651435</v>
+      </c>
+      <c r="BS28" s="45">
+        <f t="shared" si="12"/>
+        <v>0.60520727310902911</v>
+      </c>
+      <c r="BT28" s="45">
+        <f t="shared" si="13"/>
+        <v>-0.12910017673303148</v>
+      </c>
+      <c r="BU28" s="45">
+        <f t="shared" si="14"/>
+        <v>0.79241296859885424</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW28" s="118"/>
+      <c r="BX28" s="116"/>
+      <c r="BY28" s="114"/>
+      <c r="BZ28" s="114"/>
+      <c r="CA28" s="114"/>
+      <c r="CB28" s="114"/>
+      <c r="CC28" s="114"/>
+      <c r="CD28" s="114"/>
+      <c r="CE28" s="114"/>
+      <c r="CF28" s="114"/>
+      <c r="CG28" s="114"/>
+      <c r="CH28" s="114"/>
+      <c r="CI28" s="114"/>
+      <c r="CJ28" s="114"/>
+      <c r="CK28" s="114"/>
+      <c r="CL28" s="114"/>
+      <c r="CM28" s="114"/>
     </row>
-    <row r="29" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="92"/>
+    <row r="29" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="110"/>
       <c r="C29" s="11" t="s">
         <v>29</v>
       </c>
@@ -4511,7 +6839,7 @@
         <v>0.35999999999999993</v>
       </c>
       <c r="K29" s="5"/>
-      <c r="L29" s="92"/>
+      <c r="L29" s="110"/>
       <c r="M29" s="11" t="s">
         <v>29</v>
       </c>
@@ -4544,9 +6872,93 @@
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
+      <c r="BE29" s="58"/>
+      <c r="BF29" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG29" s="45">
+        <f t="shared" si="0"/>
+        <v>-5.0328260383023515E-3</v>
+      </c>
+      <c r="BH29" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25534811435765575</v>
+      </c>
+      <c r="BI29" s="45">
+        <f t="shared" si="2"/>
+        <v>-1.9634584083608613E-2</v>
+      </c>
+      <c r="BJ29" s="45">
+        <f t="shared" si="3"/>
+        <v>-0.43354873772881303</v>
+      </c>
+      <c r="BK29" s="45">
+        <f t="shared" si="4"/>
+        <v>-5.1593983020638848E-2</v>
+      </c>
+      <c r="BL29" s="45">
+        <f t="shared" si="5"/>
+        <v>4.7771193794186664E-2</v>
+      </c>
+      <c r="BM29" s="45">
+        <f t="shared" si="6"/>
+        <v>0.40914356328503365</v>
+      </c>
+      <c r="BN29" s="45">
+        <f t="shared" si="7"/>
+        <v>0.19621353240509348</v>
+      </c>
+      <c r="BO29" s="45">
+        <f t="shared" si="8"/>
+        <v>0.2919002868302788</v>
+      </c>
+      <c r="BP29" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.26036931742829827</v>
+      </c>
+      <c r="BQ29" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.61229271527162077</v>
+      </c>
+      <c r="BR29" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.17844812695947596</v>
+      </c>
+      <c r="BS29" s="45">
+        <f t="shared" si="12"/>
+        <v>-0.22807119291617731</v>
+      </c>
+      <c r="BT29" s="45">
+        <f t="shared" si="13"/>
+        <v>-6.2914930847794301E-2</v>
+      </c>
+      <c r="BU29" s="45">
+        <f t="shared" si="14"/>
+        <v>-0.2556800662232554</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW29" s="118"/>
+      <c r="BX29" s="116"/>
+      <c r="BY29" s="114"/>
+      <c r="BZ29" s="114"/>
+      <c r="CA29" s="114"/>
+      <c r="CB29" s="114"/>
+      <c r="CC29" s="114"/>
+      <c r="CD29" s="114"/>
+      <c r="CE29" s="114"/>
+      <c r="CF29" s="114"/>
+      <c r="CG29" s="114"/>
+      <c r="CH29" s="114"/>
+      <c r="CI29" s="114"/>
+      <c r="CJ29" s="114"/>
+      <c r="CK29" s="114"/>
+      <c r="CL29" s="114"/>
+      <c r="CM29" s="114"/>
     </row>
-    <row r="30" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="92"/>
+    <row r="30" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="110"/>
       <c r="C30" s="11" t="s">
         <v>35</v>
       </c>
@@ -4572,7 +6984,7 @@
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="K30" s="5"/>
-      <c r="L30" s="92"/>
+      <c r="L30" s="110"/>
       <c r="M30" s="11" t="s">
         <v>35</v>
       </c>
@@ -4605,9 +7017,93 @@
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
+      <c r="BE30" s="58"/>
+      <c r="BF30" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG30" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.64546425285604936</v>
+      </c>
+      <c r="BH30" s="45">
+        <f t="shared" si="1"/>
+        <v>-4.9533884038043284E-2</v>
+      </c>
+      <c r="BI30" s="45">
+        <f t="shared" si="2"/>
+        <v>0.65605066167725445</v>
+      </c>
+      <c r="BJ30" s="45">
+        <f t="shared" si="3"/>
+        <v>2.8413694142114653E-2</v>
+      </c>
+      <c r="BK30" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.59771839656245529</v>
+      </c>
+      <c r="BL30" s="45">
+        <f t="shared" si="5"/>
+        <v>-0.53762191003814874</v>
+      </c>
+      <c r="BM30" s="45">
+        <f t="shared" si="6"/>
+        <v>-0.69357141878815853</v>
+      </c>
+      <c r="BN30" s="45">
+        <f t="shared" si="7"/>
+        <v>-0.29137873413013299</v>
+      </c>
+      <c r="BO30" s="45">
+        <f t="shared" si="8"/>
+        <v>-0.47041370949039152</v>
+      </c>
+      <c r="BP30" s="45">
+        <f t="shared" si="9"/>
+        <v>5.2594742090873295E-2</v>
+      </c>
+      <c r="BQ30" s="45">
+        <f t="shared" si="10"/>
+        <v>0.59746738811547651</v>
+      </c>
+      <c r="BR30" s="45">
+        <f t="shared" si="11"/>
+        <v>0.10165227251370001</v>
+      </c>
+      <c r="BS30" s="45">
+        <f t="shared" si="12"/>
+        <v>0.15788187425100034</v>
+      </c>
+      <c r="BT30" s="45">
+        <f t="shared" si="13"/>
+        <v>0.40223560481819304</v>
+      </c>
+      <c r="BU30" s="45">
+        <f t="shared" si="14"/>
+        <v>0.67123177542865398</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>84</v>
+      </c>
+      <c r="BW30" s="118"/>
+      <c r="BX30" s="116"/>
+      <c r="BY30" s="114"/>
+      <c r="BZ30" s="114"/>
+      <c r="CA30" s="114"/>
+      <c r="CB30" s="114"/>
+      <c r="CC30" s="114"/>
+      <c r="CD30" s="114"/>
+      <c r="CE30" s="114"/>
+      <c r="CF30" s="114"/>
+      <c r="CG30" s="114"/>
+      <c r="CH30" s="114"/>
+      <c r="CI30" s="114"/>
+      <c r="CJ30" s="114"/>
+      <c r="CK30" s="114"/>
+      <c r="CL30" s="114"/>
+      <c r="CM30" s="114"/>
     </row>
-    <row r="31" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="92"/>
+    <row r="31" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="110"/>
       <c r="C31" s="11" t="s">
         <v>36</v>
       </c>
@@ -4633,7 +7129,7 @@
         <v>0.45</v>
       </c>
       <c r="K31" s="5"/>
-      <c r="L31" s="92"/>
+      <c r="L31" s="110"/>
       <c r="M31" s="11" t="s">
         <v>36</v>
       </c>
@@ -4666,9 +7162,93 @@
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
+      <c r="BE31" s="58"/>
+      <c r="BF31" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG31" s="45">
+        <f t="shared" si="0"/>
+        <v>0.10416352153403288</v>
+      </c>
+      <c r="BH31" s="45">
+        <f t="shared" si="1"/>
+        <v>0.17888925918963805</v>
+      </c>
+      <c r="BI31" s="45">
+        <f t="shared" si="2"/>
+        <v>-0.13861235047160911</v>
+      </c>
+      <c r="BJ31" s="45">
+        <f t="shared" si="3"/>
+        <v>-0.36789943584060775</v>
+      </c>
+      <c r="BK31" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.28675105521020683</v>
+      </c>
+      <c r="BL31" s="45">
+        <f t="shared" si="5"/>
+        <v>0.1375245574085095</v>
+      </c>
+      <c r="BM31" s="45">
+        <f t="shared" si="6"/>
+        <v>0.27673113962675061</v>
+      </c>
+      <c r="BN31" s="45">
+        <f t="shared" si="7"/>
+        <v>0.25155267994028896</v>
+      </c>
+      <c r="BO31" s="45">
+        <f t="shared" si="8"/>
+        <v>0.29732975617518592</v>
+      </c>
+      <c r="BP31" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.44584718458036915</v>
+      </c>
+      <c r="BQ31" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.58575182253308022</v>
+      </c>
+      <c r="BR31" s="45">
+        <f t="shared" si="11"/>
+        <v>-5.0629786896226901E-2</v>
+      </c>
+      <c r="BS31" s="45">
+        <f t="shared" si="12"/>
+        <v>-0.33932762588837351</v>
+      </c>
+      <c r="BT31" s="45">
+        <f t="shared" si="13"/>
+        <v>-0.26061907702648324</v>
+      </c>
+      <c r="BU31" s="45">
+        <f t="shared" si="14"/>
+        <v>-0.1051258751034338</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW31" s="118"/>
+      <c r="BX31" s="116"/>
+      <c r="BY31" s="114"/>
+      <c r="BZ31" s="114"/>
+      <c r="CA31" s="114"/>
+      <c r="CB31" s="114"/>
+      <c r="CC31" s="114"/>
+      <c r="CD31" s="114"/>
+      <c r="CE31" s="114"/>
+      <c r="CF31" s="114"/>
+      <c r="CG31" s="114"/>
+      <c r="CH31" s="114"/>
+      <c r="CI31" s="114"/>
+      <c r="CJ31" s="114"/>
+      <c r="CK31" s="114"/>
+      <c r="CL31" s="114"/>
+      <c r="CM31" s="114"/>
     </row>
-    <row r="32" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="92"/>
+    <row r="32" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="110"/>
       <c r="C32" s="11" t="s">
         <v>37</v>
       </c>
@@ -4694,7 +7274,7 @@
         <v>0.23000000000000004</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="92"/>
+      <c r="L32" s="110"/>
       <c r="M32" s="11" t="s">
         <v>37</v>
       </c>
@@ -4727,9 +7307,93 @@
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
+      <c r="BE32" s="58"/>
+      <c r="BF32" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG32" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.34344001088408049</v>
+      </c>
+      <c r="BH32" s="45">
+        <f t="shared" si="1"/>
+        <v>0.3365814478439228</v>
+      </c>
+      <c r="BI32" s="45">
+        <f t="shared" si="2"/>
+        <v>0.78541864166435182</v>
+      </c>
+      <c r="BJ32" s="45">
+        <f t="shared" si="3"/>
+        <v>5.6412113054312325E-2</v>
+      </c>
+      <c r="BK32" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.28669198210721142</v>
+      </c>
+      <c r="BL32" s="45">
+        <f t="shared" si="5"/>
+        <v>-0.81607227620309319</v>
+      </c>
+      <c r="BM32" s="45">
+        <f t="shared" si="6"/>
+        <v>0.13586879674634969</v>
+      </c>
+      <c r="BN32" s="45">
+        <f t="shared" si="7"/>
+        <v>-5.0534671233581067E-2</v>
+      </c>
+      <c r="BO32" s="45">
+        <f t="shared" si="8"/>
+        <v>-0.83816470804116272</v>
+      </c>
+      <c r="BP32" s="45">
+        <f t="shared" si="9"/>
+        <v>0.2282957414995519</v>
+      </c>
+      <c r="BQ32" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.3102686901293446</v>
+      </c>
+      <c r="BR32" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.8194401943665035</v>
+      </c>
+      <c r="BS32" s="45">
+        <f t="shared" si="12"/>
+        <v>0.89495637298854758</v>
+      </c>
+      <c r="BT32" s="45">
+        <f t="shared" si="13"/>
+        <v>0.3217130086880734</v>
+      </c>
+      <c r="BU32" s="45">
+        <f t="shared" si="14"/>
+        <v>0.28549306992722834</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW32" s="118"/>
+      <c r="BX32" s="116"/>
+      <c r="BY32" s="114"/>
+      <c r="BZ32" s="114"/>
+      <c r="CA32" s="114"/>
+      <c r="CB32" s="114"/>
+      <c r="CC32" s="114"/>
+      <c r="CD32" s="114"/>
+      <c r="CE32" s="114"/>
+      <c r="CF32" s="114"/>
+      <c r="CG32" s="114"/>
+      <c r="CH32" s="114"/>
+      <c r="CI32" s="114"/>
+      <c r="CJ32" s="114"/>
+      <c r="CK32" s="114"/>
+      <c r="CL32" s="114"/>
+      <c r="CM32" s="114"/>
     </row>
-    <row r="33" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="92"/>
+    <row r="33" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="110"/>
       <c r="C33" s="13" t="s">
         <v>38</v>
       </c>
@@ -4755,7 +7419,7 @@
         <v>0.65999999999999992</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="92"/>
+      <c r="L33" s="110"/>
       <c r="M33" s="13" t="s">
         <v>38</v>
       </c>
@@ -4788,9 +7452,662 @@
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
+      <c r="BE33" s="58"/>
+      <c r="BF33" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG33" s="45">
+        <f t="shared" si="0"/>
+        <v>0.27393904778346356</v>
+      </c>
+      <c r="BH33" s="45">
+        <f t="shared" si="1"/>
+        <v>0.89969414456294072</v>
+      </c>
+      <c r="BI33" s="45">
+        <f t="shared" si="2"/>
+        <v>-0.20319131207568097</v>
+      </c>
+      <c r="BJ33" s="45">
+        <f t="shared" si="3"/>
+        <v>0.41235290236580363</v>
+      </c>
+      <c r="BK33" s="45">
+        <f t="shared" si="4"/>
+        <v>0.26351335267966075</v>
+      </c>
+      <c r="BL33" s="45">
+        <f t="shared" si="5"/>
+        <v>0.40503698262837062</v>
+      </c>
+      <c r="BM33" s="45">
+        <f t="shared" si="6"/>
+        <v>0.6377055437007797</v>
+      </c>
+      <c r="BN33" s="45">
+        <f t="shared" si="7"/>
+        <v>0.17580161865263547</v>
+      </c>
+      <c r="BO33" s="45">
+        <f t="shared" si="8"/>
+        <v>0.57646306027547933</v>
+      </c>
+      <c r="BP33" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.74980803274279684</v>
+      </c>
+      <c r="BQ33" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.23411176551071072</v>
+      </c>
+      <c r="BR33" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.26978242899535532</v>
+      </c>
+      <c r="BS33" s="45">
+        <f t="shared" si="12"/>
+        <v>9.7250918605361864E-2</v>
+      </c>
+      <c r="BT33" s="45">
+        <f t="shared" si="13"/>
+        <v>0.35193575269284488</v>
+      </c>
+      <c r="BU33" s="45">
+        <f t="shared" si="14"/>
+        <v>-0.4268795074248794</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW33" s="118"/>
+      <c r="BX33" s="116"/>
+      <c r="BY33" s="114"/>
+      <c r="BZ33" s="114"/>
+      <c r="CA33" s="114"/>
+      <c r="CB33" s="114"/>
+      <c r="CC33" s="114"/>
+      <c r="CD33" s="114"/>
+      <c r="CE33" s="114"/>
+      <c r="CF33" s="114"/>
+      <c r="CG33" s="114"/>
+      <c r="CH33" s="114"/>
+      <c r="CI33" s="114"/>
+      <c r="CJ33" s="114"/>
+      <c r="CK33" s="114"/>
+      <c r="CL33" s="114"/>
+      <c r="CM33" s="114"/>
+    </row>
+    <row r="34" spans="2:91" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="61"/>
+      <c r="BE34" s="58"/>
+      <c r="BF34" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG34" s="45">
+        <f t="shared" si="0"/>
+        <v>7.503657904788856E-2</v>
+      </c>
+      <c r="BH34" s="45">
+        <f t="shared" si="1"/>
+        <v>0.51720177782139187</v>
+      </c>
+      <c r="BI34" s="45">
+        <f t="shared" si="2"/>
+        <v>0.60356596640919324</v>
+      </c>
+      <c r="BJ34" s="45">
+        <f t="shared" si="3"/>
+        <v>0.47006267633229437</v>
+      </c>
+      <c r="BK34" s="45">
+        <f t="shared" si="4"/>
+        <v>0.21088117036442275</v>
+      </c>
+      <c r="BL34" s="45">
+        <f t="shared" si="5"/>
+        <v>-0.66068965517241396</v>
+      </c>
+      <c r="BM34" s="45">
+        <f t="shared" si="6"/>
+        <v>0.4753120259341454</v>
+      </c>
+      <c r="BN34" s="45">
+        <f t="shared" si="7"/>
+        <v>-0.39502058167773868</v>
+      </c>
+      <c r="BO34" s="45">
+        <f t="shared" si="8"/>
+        <v>-0.56971253670965627</v>
+      </c>
+      <c r="BP34" s="45">
+        <f t="shared" si="9"/>
+        <v>-0.16277195259373534</v>
+      </c>
+      <c r="BQ34" s="45">
+        <f t="shared" si="10"/>
+        <v>-0.32100444364725739</v>
+      </c>
+      <c r="BR34" s="45">
+        <f t="shared" si="11"/>
+        <v>-0.68924793588384559</v>
+      </c>
+      <c r="BS34" s="45">
+        <f t="shared" si="12"/>
+        <v>0.79535140963438811</v>
+      </c>
+      <c r="BT34" s="45">
+        <f t="shared" si="13"/>
+        <v>0.59926056558357366</v>
+      </c>
+      <c r="BU34" s="45">
+        <f t="shared" si="14"/>
+        <v>-0.28805212357562338</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW34" s="118"/>
+      <c r="BX34" s="116"/>
+      <c r="BY34" s="114"/>
+      <c r="BZ34" s="114"/>
+      <c r="CA34" s="114"/>
+      <c r="CB34" s="114"/>
+      <c r="CC34" s="114"/>
+      <c r="CD34" s="114"/>
+      <c r="CE34" s="114"/>
+      <c r="CF34" s="114"/>
+      <c r="CG34" s="114"/>
+      <c r="CH34" s="114"/>
+      <c r="CI34" s="114"/>
+      <c r="CJ34" s="114"/>
+      <c r="CK34" s="114"/>
+      <c r="CL34" s="114"/>
+      <c r="CM34" s="114"/>
+    </row>
+    <row r="35" spans="2:91" ht="19" x14ac:dyDescent="0.2">
+      <c r="L35" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="N35" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="68"/>
+      <c r="BW35" s="112"/>
+      <c r="BX35" s="112"/>
+      <c r="BY35" s="112"/>
+      <c r="BZ35" s="112"/>
+      <c r="CA35" s="112"/>
+      <c r="CB35" s="112"/>
+      <c r="CC35" s="112"/>
+      <c r="CD35" s="112"/>
+      <c r="CE35" s="112"/>
+      <c r="CF35" s="112"/>
+      <c r="CG35" s="112"/>
+      <c r="CH35" s="112"/>
+      <c r="CI35" s="112"/>
+      <c r="CJ35" s="112"/>
+      <c r="CK35" s="112"/>
+      <c r="CL35" s="112"/>
+      <c r="CM35" s="112"/>
+    </row>
+    <row r="36" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="63"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="L37" s="69">
+        <v>2</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" s="22">
+        <v>375</v>
+      </c>
+      <c r="O37" s="20">
+        <v>500</v>
+      </c>
+      <c r="P37" s="20">
+        <v>270</v>
+      </c>
+      <c r="Q37" s="20">
+        <v>300</v>
+      </c>
+      <c r="R37" s="20">
+        <v>400</v>
+      </c>
+      <c r="S37" s="20">
+        <v>400</v>
+      </c>
+      <c r="T37" s="21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="L38" s="70"/>
+      <c r="M38" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N38" s="23">
+        <v>450</v>
+      </c>
+      <c r="O38" s="14">
+        <v>400</v>
+      </c>
+      <c r="P38" s="14">
+        <v>390</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>850</v>
+      </c>
+      <c r="R38" s="14">
+        <v>500</v>
+      </c>
+      <c r="S38" s="14">
+        <v>1205</v>
+      </c>
+      <c r="T38" s="15">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="39" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="L39" s="70"/>
+      <c r="M39" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39" s="23">
+        <v>1300</v>
+      </c>
+      <c r="O39" s="14">
+        <v>1000</v>
+      </c>
+      <c r="P39" s="14">
+        <v>1300</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>1650</v>
+      </c>
+      <c r="R39" s="14">
+        <v>1000</v>
+      </c>
+      <c r="S39" s="14">
+        <v>1400</v>
+      </c>
+      <c r="T39" s="15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="40" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="L40" s="70"/>
+      <c r="M40" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="23">
+        <v>200</v>
+      </c>
+      <c r="O40" s="14">
+        <v>400</v>
+      </c>
+      <c r="P40" s="14">
+        <v>150</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>350</v>
+      </c>
+      <c r="R40" s="14">
+        <v>350</v>
+      </c>
+      <c r="S40" s="14">
+        <v>400</v>
+      </c>
+      <c r="T40" s="15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="71"/>
+      <c r="M41" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" s="24">
+        <v>1700</v>
+      </c>
+      <c r="O41" s="16">
+        <v>1900</v>
+      </c>
+      <c r="P41" s="16">
+        <v>1450</v>
+      </c>
+      <c r="Q41" s="16">
+        <v>1800</v>
+      </c>
+      <c r="R41" s="16">
+        <v>1750</v>
+      </c>
+      <c r="S41" s="16">
+        <v>1600</v>
+      </c>
+      <c r="T41" s="17">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="42" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="L42" s="69">
+        <v>3</v>
+      </c>
+      <c r="M42" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N42" s="22">
+        <v>5</v>
+      </c>
+      <c r="O42" s="20">
+        <v>7</v>
+      </c>
+      <c r="P42" s="20">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="20">
+        <v>3</v>
+      </c>
+      <c r="R42" s="20">
+        <v>9</v>
+      </c>
+      <c r="S42" s="20">
+        <v>5</v>
+      </c>
+      <c r="T42" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="71"/>
+      <c r="M43" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="N43" s="24">
+        <v>650</v>
+      </c>
+      <c r="O43" s="16">
+        <v>700</v>
+      </c>
+      <c r="P43" s="16">
+        <v>450</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>600</v>
+      </c>
+      <c r="R43" s="16">
+        <v>500</v>
+      </c>
+      <c r="S43" s="16">
+        <v>700</v>
+      </c>
+      <c r="T43" s="17">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="44" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="L44" s="69">
+        <v>4</v>
+      </c>
+      <c r="M44" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="N44" s="22">
+        <v>300</v>
+      </c>
+      <c r="O44" s="20">
+        <v>300</v>
+      </c>
+      <c r="P44" s="20">
+        <v>500</v>
+      </c>
+      <c r="Q44" s="20">
+        <v>200</v>
+      </c>
+      <c r="R44" s="20">
+        <v>250</v>
+      </c>
+      <c r="S44" s="20">
+        <v>340</v>
+      </c>
+      <c r="T44" s="21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="2:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="71"/>
+      <c r="M45" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="N45" s="24">
+        <v>450</v>
+      </c>
+      <c r="O45" s="16">
+        <v>360</v>
+      </c>
+      <c r="P45" s="16">
+        <v>320</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>200</v>
+      </c>
+      <c r="R45" s="16">
+        <v>950</v>
+      </c>
+      <c r="S45" s="16">
+        <v>320</v>
+      </c>
+      <c r="T45" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="L46" s="69">
+        <v>5</v>
+      </c>
+      <c r="M46" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="N46" s="22">
+        <v>1200</v>
+      </c>
+      <c r="O46" s="20">
+        <v>1300</v>
+      </c>
+      <c r="P46" s="20">
+        <v>1500</v>
+      </c>
+      <c r="Q46" s="20">
+        <v>1320</v>
+      </c>
+      <c r="R46" s="20">
+        <v>900</v>
+      </c>
+      <c r="S46" s="20">
+        <v>800</v>
+      </c>
+      <c r="T46" s="21">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="47" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="L47" s="70"/>
+      <c r="M47" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="N47" s="23">
+        <v>100</v>
+      </c>
+      <c r="O47" s="14">
+        <v>200</v>
+      </c>
+      <c r="P47" s="14">
+        <v>250</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>350</v>
+      </c>
+      <c r="R47" s="14">
+        <v>450</v>
+      </c>
+      <c r="S47" s="14">
+        <v>150</v>
+      </c>
+      <c r="T47" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="L48" s="70"/>
+      <c r="M48" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="N48" s="23">
+        <v>3000</v>
+      </c>
+      <c r="O48" s="14">
+        <v>2800</v>
+      </c>
+      <c r="P48" s="14">
+        <v>2700</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>2200</v>
+      </c>
+      <c r="R48" s="14">
+        <v>5500</v>
+      </c>
+      <c r="S48" s="14">
+        <v>1500</v>
+      </c>
+      <c r="T48" s="15">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="49" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L49" s="70"/>
+      <c r="M49" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="N49" s="23">
+        <v>25</v>
+      </c>
+      <c r="O49" s="14">
+        <v>35</v>
+      </c>
+      <c r="P49" s="14">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="14">
+        <v>40</v>
+      </c>
+      <c r="R49" s="14">
+        <v>15</v>
+      </c>
+      <c r="S49" s="14">
+        <v>40</v>
+      </c>
+      <c r="T49" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L50" s="70"/>
+      <c r="M50" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N50" s="23">
+        <v>1400</v>
+      </c>
+      <c r="O50" s="14">
+        <v>1200</v>
+      </c>
+      <c r="P50" s="14">
+        <v>900</v>
+      </c>
+      <c r="Q50" s="14">
+        <v>2500</v>
+      </c>
+      <c r="R50" s="14">
+        <v>1700</v>
+      </c>
+      <c r="S50" s="14">
+        <v>1800</v>
+      </c>
+      <c r="T50" s="15">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="51" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L51" s="71"/>
+      <c r="M51" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N51" s="24">
+        <v>3000</v>
+      </c>
+      <c r="O51" s="16">
+        <v>2700</v>
+      </c>
+      <c r="P51" s="16">
+        <v>4500</v>
+      </c>
+      <c r="Q51" s="16">
+        <v>3200</v>
+      </c>
+      <c r="R51" s="16">
+        <v>3100</v>
+      </c>
+      <c r="S51" s="16">
+        <v>3400</v>
+      </c>
+      <c r="T51" s="17">
+        <v>2700</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="61">
     <mergeCell ref="B24:B33"/>
     <mergeCell ref="L5:L14"/>
     <mergeCell ref="L15:L23"/>
@@ -4799,6 +8116,10 @@
     <mergeCell ref="V12:V13"/>
     <mergeCell ref="V10:V11"/>
     <mergeCell ref="V5:V9"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="AV3:AX3"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="C3:C4"/>
@@ -4807,13 +8128,39 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:T3"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="X3:AD3"/>
     <mergeCell ref="AF14:AF19"/>
     <mergeCell ref="AF10:AF11"/>
     <mergeCell ref="AF12:AF13"/>
     <mergeCell ref="AF5:AF9"/>
-    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L46:L51"/>
+    <mergeCell ref="BE5:BE34"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BF3:BU4"/>
+    <mergeCell ref="AZ5:AZ23"/>
+    <mergeCell ref="BA5:BA23"/>
+    <mergeCell ref="BB5:BB23"/>
+    <mergeCell ref="BC5:BC23"/>
+    <mergeCell ref="BA3:BA4"/>
+    <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AU15:AU16"/>
+    <mergeCell ref="AV15:AX15"/>
+    <mergeCell ref="AU13:AX14"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="L37:L41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="BW2:CM2"/>
+    <mergeCell ref="L34:T34"/>
+    <mergeCell ref="BE2:BU2"/>
+    <mergeCell ref="AZ2:BC2"/>
+    <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AQ3:AS3"/>
     <mergeCell ref="AP3:AP4"/>
@@ -4822,26 +8169,384 @@
     <mergeCell ref="AF2:AN2"/>
     <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="X3:AD3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AU15:AU16"/>
-    <mergeCell ref="AV15:AX15"/>
-    <mergeCell ref="AU13:AX14"/>
-    <mergeCell ref="AZ2:BC2"/>
-    <mergeCell ref="AZ5:AZ23"/>
-    <mergeCell ref="BA5:BA23"/>
-    <mergeCell ref="BB5:BB23"/>
-    <mergeCell ref="BC5:BC23"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="BC3:BC4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="N5:T5">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:T33">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG6:BU6">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG7:BU7">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG8:BU8">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG9:BU9">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG10:BU10">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG11:BU11">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG12:BU12">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG13:BU13">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG14:BU14">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG15:BU15">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG16:BU16">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG17:BU17">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG18:BU18">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG19:BU19">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG20:BU20">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG21:BU21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG22:BU22">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG23:BU23">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG24:BU24">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG25:BU25">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG26:BU26">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG27:BU27">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG28:BU28">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG29:BU29">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG30:BU30">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG31:BU31">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG32:BU32">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG33:BU33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG34:BU34">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="AV17" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>